--- a/database/industries/darou/detmad/product/monthly.xlsx
+++ b/database/industries/darou/detmad/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\detmad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B6EAEA-1632-4617-BE23-8937F99AB6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A334A5C-B98F-447B-8ECA-B5C73DCF3773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>غیر نارکوتیکها</t>
@@ -1409,154 +1409,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>115973</v>
+        <v>89343</v>
       </c>
       <c r="F11" s="11">
-        <v>59451</v>
+        <v>151638</v>
       </c>
       <c r="G11" s="11">
-        <v>89343</v>
+        <v>127350</v>
       </c>
       <c r="H11" s="11">
-        <v>151638</v>
+        <v>38924</v>
       </c>
       <c r="I11" s="11">
-        <v>127350</v>
+        <v>120481</v>
       </c>
       <c r="J11" s="11">
-        <v>38924</v>
+        <v>44118</v>
       </c>
       <c r="K11" s="11">
-        <v>120481</v>
+        <v>137991</v>
       </c>
       <c r="L11" s="11">
-        <v>44118</v>
+        <v>201230</v>
       </c>
       <c r="M11" s="11">
-        <v>137991</v>
+        <v>251673</v>
       </c>
       <c r="N11" s="11">
-        <v>201230</v>
+        <v>164878</v>
       </c>
       <c r="O11" s="11">
-        <v>251673</v>
+        <v>63018</v>
       </c>
       <c r="P11" s="11">
-        <v>164878</v>
+        <v>48573</v>
       </c>
       <c r="Q11" s="11">
-        <v>63018</v>
+        <v>287807</v>
       </c>
       <c r="R11" s="11">
-        <v>48573</v>
+        <v>196431</v>
       </c>
       <c r="S11" s="11">
-        <v>287807</v>
+        <v>189240</v>
       </c>
       <c r="T11" s="11">
-        <v>196431</v>
+        <v>116686</v>
       </c>
       <c r="U11" s="11">
-        <v>189240</v>
+        <v>30775</v>
       </c>
       <c r="V11" s="11">
-        <v>116686</v>
+        <v>78534</v>
       </c>
       <c r="W11" s="11">
-        <v>30775</v>
+        <v>95562</v>
       </c>
       <c r="X11" s="11">
-        <v>78534</v>
+        <v>84110</v>
       </c>
       <c r="Y11" s="11">
-        <v>95562</v>
+        <v>123513</v>
       </c>
       <c r="Z11" s="11">
-        <v>84110</v>
+        <v>91487</v>
       </c>
       <c r="AA11" s="11">
-        <v>123513</v>
+        <v>140371</v>
       </c>
       <c r="AB11" s="11">
-        <v>91487</v>
+        <v>230664</v>
       </c>
       <c r="AC11" s="11">
-        <v>140371</v>
+        <v>210132</v>
       </c>
       <c r="AD11" s="11">
-        <v>230664</v>
+        <v>271037</v>
       </c>
       <c r="AE11" s="11">
-        <v>210132</v>
+        <v>170445</v>
       </c>
       <c r="AF11" s="11">
-        <v>271037</v>
+        <v>189858</v>
       </c>
       <c r="AG11" s="11">
-        <v>170445</v>
+        <v>150000</v>
       </c>
       <c r="AH11" s="11">
-        <v>189858</v>
+        <v>114590</v>
       </c>
       <c r="AI11" s="11">
-        <v>150000</v>
+        <v>145360</v>
       </c>
       <c r="AJ11" s="11">
-        <v>114590</v>
+        <v>181285</v>
       </c>
       <c r="AK11" s="11">
-        <v>145360</v>
+        <v>123612</v>
       </c>
       <c r="AL11" s="11">
-        <v>181285</v>
+        <v>100950</v>
       </c>
       <c r="AM11" s="11">
-        <v>123612</v>
+        <v>135051</v>
       </c>
       <c r="AN11" s="11">
-        <v>100950</v>
+        <v>109142</v>
       </c>
       <c r="AO11" s="11">
-        <v>135051</v>
+        <v>96583</v>
       </c>
       <c r="AP11" s="11">
-        <v>109142</v>
+        <v>101625</v>
       </c>
       <c r="AQ11" s="11">
-        <v>96583</v>
+        <v>59813</v>
       </c>
       <c r="AR11" s="11">
-        <v>101625</v>
+        <v>103650</v>
       </c>
       <c r="AS11" s="11">
-        <v>59813</v>
+        <v>49677</v>
       </c>
       <c r="AT11" s="11">
-        <v>103650</v>
+        <v>37998</v>
       </c>
       <c r="AU11" s="11">
-        <v>49677</v>
+        <v>215582</v>
       </c>
       <c r="AV11" s="11">
-        <v>37998</v>
+        <v>111820</v>
       </c>
       <c r="AW11" s="11">
-        <v>215582</v>
+        <v>63481</v>
       </c>
       <c r="AX11" s="11">
-        <v>111820</v>
+        <v>90970</v>
       </c>
       <c r="AY11" s="11">
-        <v>63481</v>
+        <v>185257</v>
       </c>
       <c r="AZ11" s="11">
-        <v>90970</v>
+        <v>139305</v>
       </c>
       <c r="BA11" s="11">
-        <v>185257</v>
+        <v>121715</v>
       </c>
       <c r="BB11" s="11">
-        <v>139305</v>
+        <v>136466</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1568,154 +1568,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>37649</v>
+        <v>16983</v>
       </c>
       <c r="F12" s="13">
-        <v>13940</v>
+        <v>4652</v>
       </c>
       <c r="G12" s="13">
-        <v>16983</v>
+        <v>49746</v>
       </c>
       <c r="H12" s="13">
-        <v>4652</v>
+        <v>12675</v>
       </c>
       <c r="I12" s="13">
-        <v>49746</v>
+        <v>16359</v>
       </c>
       <c r="J12" s="13">
-        <v>12675</v>
+        <v>3099</v>
       </c>
       <c r="K12" s="13">
-        <v>16359</v>
+        <v>15954</v>
       </c>
       <c r="L12" s="13">
-        <v>3099</v>
+        <v>16676</v>
       </c>
       <c r="M12" s="13">
-        <v>15954</v>
+        <v>5257</v>
       </c>
       <c r="N12" s="13">
-        <v>16676</v>
+        <v>8222</v>
       </c>
       <c r="O12" s="13">
-        <v>5257</v>
+        <v>9306</v>
       </c>
       <c r="P12" s="13">
-        <v>8222</v>
+        <v>32936</v>
       </c>
       <c r="Q12" s="13">
-        <v>9306</v>
+        <v>17216</v>
       </c>
       <c r="R12" s="13">
-        <v>32936</v>
+        <v>39361</v>
       </c>
       <c r="S12" s="13">
-        <v>17216</v>
+        <v>13785</v>
       </c>
       <c r="T12" s="13">
-        <v>39361</v>
+        <v>28200</v>
       </c>
       <c r="U12" s="13">
-        <v>13785</v>
+        <v>1796</v>
       </c>
       <c r="V12" s="13">
-        <v>28200</v>
+        <v>9394</v>
       </c>
       <c r="W12" s="13">
-        <v>1796</v>
+        <v>53596</v>
       </c>
       <c r="X12" s="13">
-        <v>9394</v>
+        <v>5876</v>
       </c>
       <c r="Y12" s="13">
-        <v>53596</v>
+        <v>25246</v>
       </c>
       <c r="Z12" s="13">
-        <v>5876</v>
+        <v>38307</v>
       </c>
       <c r="AA12" s="13">
-        <v>25246</v>
+        <v>55919</v>
       </c>
       <c r="AB12" s="13">
-        <v>38307</v>
+        <v>50470</v>
       </c>
       <c r="AC12" s="13">
-        <v>55919</v>
+        <v>56730</v>
       </c>
       <c r="AD12" s="13">
-        <v>50470</v>
+        <v>49390</v>
       </c>
       <c r="AE12" s="13">
-        <v>56730</v>
+        <v>74486</v>
       </c>
       <c r="AF12" s="13">
-        <v>49390</v>
+        <v>22088</v>
       </c>
       <c r="AG12" s="13">
-        <v>74486</v>
+        <v>72070</v>
       </c>
       <c r="AH12" s="13">
-        <v>22088</v>
+        <v>22157</v>
       </c>
       <c r="AI12" s="13">
-        <v>72070</v>
+        <v>11770</v>
       </c>
       <c r="AJ12" s="13">
-        <v>22157</v>
+        <v>22480</v>
       </c>
       <c r="AK12" s="13">
-        <v>11770</v>
+        <v>14196</v>
       </c>
       <c r="AL12" s="13">
-        <v>22480</v>
+        <v>8416</v>
       </c>
       <c r="AM12" s="13">
-        <v>14196</v>
+        <v>68992</v>
       </c>
       <c r="AN12" s="13">
-        <v>8416</v>
+        <v>34050</v>
       </c>
       <c r="AO12" s="13">
-        <v>68992</v>
+        <v>87105</v>
       </c>
       <c r="AP12" s="13">
-        <v>34050</v>
+        <v>20049</v>
       </c>
       <c r="AQ12" s="13">
-        <v>87105</v>
+        <v>20894</v>
       </c>
       <c r="AR12" s="13">
-        <v>20049</v>
+        <v>35990</v>
       </c>
       <c r="AS12" s="13">
-        <v>20894</v>
+        <v>60275</v>
       </c>
       <c r="AT12" s="13">
-        <v>35990</v>
+        <v>54293</v>
       </c>
       <c r="AU12" s="13">
-        <v>60275</v>
+        <v>19934</v>
       </c>
       <c r="AV12" s="13">
-        <v>54293</v>
+        <v>1876</v>
       </c>
       <c r="AW12" s="13">
-        <v>19934</v>
+        <v>1223</v>
       </c>
       <c r="AX12" s="13">
-        <v>1876</v>
+        <v>1001</v>
       </c>
       <c r="AY12" s="13">
-        <v>1223</v>
+        <v>12642</v>
       </c>
       <c r="AZ12" s="13">
-        <v>1001</v>
+        <v>3493</v>
       </c>
       <c r="BA12" s="13">
-        <v>12642</v>
+        <v>5494</v>
       </c>
       <c r="BB12" s="13">
-        <v>3493</v>
+        <v>63500</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1727,154 +1727,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>68363</v>
+        <v>72607</v>
       </c>
       <c r="F13" s="11">
-        <v>40169</v>
+        <v>72476</v>
       </c>
       <c r="G13" s="11">
-        <v>72607</v>
+        <v>84489</v>
       </c>
       <c r="H13" s="11">
-        <v>72476</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>84489</v>
+        <v>64249</v>
       </c>
       <c r="J13" s="11">
-        <v>0</v>
+        <v>28088</v>
       </c>
       <c r="K13" s="11">
-        <v>64249</v>
+        <v>120375</v>
       </c>
       <c r="L13" s="11">
-        <v>28088</v>
+        <v>68297</v>
       </c>
       <c r="M13" s="11">
-        <v>120375</v>
+        <v>106272</v>
       </c>
       <c r="N13" s="11">
-        <v>68297</v>
+        <v>132460</v>
       </c>
       <c r="O13" s="11">
-        <v>106272</v>
+        <v>104365</v>
       </c>
       <c r="P13" s="11">
-        <v>132460</v>
+        <v>100284</v>
       </c>
       <c r="Q13" s="11">
-        <v>104365</v>
+        <v>64277</v>
       </c>
       <c r="R13" s="11">
-        <v>100284</v>
+        <v>68346</v>
       </c>
       <c r="S13" s="11">
-        <v>64277</v>
+        <v>40442</v>
       </c>
       <c r="T13" s="11">
-        <v>68346</v>
+        <v>75991</v>
       </c>
       <c r="U13" s="11">
-        <v>40442</v>
+        <v>28201</v>
       </c>
       <c r="V13" s="11">
-        <v>75991</v>
+        <v>44168</v>
       </c>
       <c r="W13" s="11">
-        <v>28201</v>
+        <v>52069</v>
       </c>
       <c r="X13" s="11">
-        <v>44168</v>
+        <v>72867</v>
       </c>
       <c r="Y13" s="11">
-        <v>52069</v>
+        <v>112988</v>
       </c>
       <c r="Z13" s="11">
-        <v>72867</v>
+        <v>72605</v>
       </c>
       <c r="AA13" s="11">
-        <v>112988</v>
+        <v>110646</v>
       </c>
       <c r="AB13" s="11">
-        <v>72605</v>
+        <v>86373</v>
       </c>
       <c r="AC13" s="11">
-        <v>110646</v>
+        <v>42868</v>
       </c>
       <c r="AD13" s="11">
-        <v>86373</v>
+        <v>137714</v>
       </c>
       <c r="AE13" s="11">
-        <v>42868</v>
+        <v>119106</v>
       </c>
       <c r="AF13" s="11">
-        <v>137714</v>
+        <v>31347</v>
       </c>
       <c r="AG13" s="11">
-        <v>119106</v>
+        <v>117496</v>
       </c>
       <c r="AH13" s="11">
-        <v>31347</v>
+        <v>169510</v>
       </c>
       <c r="AI13" s="11">
-        <v>117496</v>
+        <v>9854265</v>
       </c>
       <c r="AJ13" s="11">
-        <v>169510</v>
+        <v>858095</v>
       </c>
       <c r="AK13" s="11">
-        <v>9854265</v>
+        <v>20379961</v>
       </c>
       <c r="AL13" s="11">
-        <v>858095</v>
+        <v>16271362</v>
       </c>
       <c r="AM13" s="11">
-        <v>20379961</v>
+        <v>5004658</v>
       </c>
       <c r="AN13" s="11">
-        <v>16271362</v>
+        <v>1520981</v>
       </c>
       <c r="AO13" s="11">
-        <v>5004658</v>
+        <v>4316415</v>
       </c>
       <c r="AP13" s="11">
-        <v>1520981</v>
+        <v>8593297</v>
       </c>
       <c r="AQ13" s="11">
-        <v>4316415</v>
+        <v>9411242</v>
       </c>
       <c r="AR13" s="11">
-        <v>8593297</v>
+        <v>5013129</v>
       </c>
       <c r="AS13" s="11">
-        <v>9411242</v>
+        <v>8017104</v>
       </c>
       <c r="AT13" s="11">
-        <v>5013129</v>
+        <v>160429</v>
       </c>
       <c r="AU13" s="11">
-        <v>8017104</v>
+        <v>386746</v>
       </c>
       <c r="AV13" s="11">
-        <v>160429</v>
+        <v>482425</v>
       </c>
       <c r="AW13" s="11">
-        <v>386746</v>
+        <v>705221</v>
       </c>
       <c r="AX13" s="11">
-        <v>482425</v>
+        <v>537704</v>
       </c>
       <c r="AY13" s="11">
-        <v>705221</v>
+        <v>2621154</v>
       </c>
       <c r="AZ13" s="11">
-        <v>537704</v>
+        <v>621573</v>
       </c>
       <c r="BA13" s="11">
-        <v>2621154</v>
+        <v>319592</v>
       </c>
       <c r="BB13" s="11">
-        <v>621573</v>
+        <v>695746</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2000,11 +2000,11 @@
       <c r="X15" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Y15" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z15" s="17" t="s">
-        <v>62</v>
+      <c r="Y15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="17">
+        <v>0</v>
       </c>
       <c r="AA15" s="17">
         <v>0</v>
@@ -2098,154 +2098,154 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19">
-        <v>221985</v>
+        <v>178933</v>
       </c>
       <c r="F16" s="19">
-        <v>113560</v>
+        <v>228766</v>
       </c>
       <c r="G16" s="19">
-        <v>178933</v>
+        <v>261585</v>
       </c>
       <c r="H16" s="19">
-        <v>228766</v>
+        <v>51599</v>
       </c>
       <c r="I16" s="19">
-        <v>261585</v>
+        <v>201089</v>
       </c>
       <c r="J16" s="19">
-        <v>51599</v>
+        <v>75305</v>
       </c>
       <c r="K16" s="19">
-        <v>201089</v>
+        <v>274320</v>
       </c>
       <c r="L16" s="19">
-        <v>75305</v>
+        <v>286203</v>
       </c>
       <c r="M16" s="19">
-        <v>274320</v>
+        <v>363202</v>
       </c>
       <c r="N16" s="19">
-        <v>286203</v>
+        <v>305560</v>
       </c>
       <c r="O16" s="19">
-        <v>363202</v>
+        <v>176689</v>
       </c>
       <c r="P16" s="19">
-        <v>305560</v>
+        <v>181793</v>
       </c>
       <c r="Q16" s="19">
-        <v>176689</v>
+        <v>369300</v>
       </c>
       <c r="R16" s="19">
-        <v>181793</v>
+        <v>304138</v>
       </c>
       <c r="S16" s="19">
-        <v>369300</v>
+        <v>243467</v>
       </c>
       <c r="T16" s="19">
-        <v>304138</v>
+        <v>220877</v>
       </c>
       <c r="U16" s="19">
-        <v>243467</v>
+        <v>60772</v>
       </c>
       <c r="V16" s="19">
-        <v>220877</v>
+        <v>132097</v>
       </c>
       <c r="W16" s="19">
-        <v>60772</v>
+        <v>201227</v>
       </c>
       <c r="X16" s="19">
-        <v>132097</v>
+        <v>162853</v>
       </c>
       <c r="Y16" s="19">
-        <v>201227</v>
+        <v>261747</v>
       </c>
       <c r="Z16" s="19">
-        <v>162853</v>
+        <v>202399</v>
       </c>
       <c r="AA16" s="19">
-        <v>261747</v>
+        <v>306936</v>
       </c>
       <c r="AB16" s="19">
-        <v>202399</v>
+        <v>367507</v>
       </c>
       <c r="AC16" s="19">
-        <v>306936</v>
+        <v>309730</v>
       </c>
       <c r="AD16" s="19">
-        <v>367507</v>
+        <v>458141</v>
       </c>
       <c r="AE16" s="19">
-        <v>309730</v>
+        <v>364037</v>
       </c>
       <c r="AF16" s="19">
-        <v>458141</v>
+        <v>243293</v>
       </c>
       <c r="AG16" s="19">
-        <v>364037</v>
+        <v>339566</v>
       </c>
       <c r="AH16" s="19">
-        <v>243293</v>
+        <v>306257</v>
       </c>
       <c r="AI16" s="19">
-        <v>339566</v>
+        <v>10011395</v>
       </c>
       <c r="AJ16" s="19">
-        <v>306257</v>
+        <v>1061860</v>
       </c>
       <c r="AK16" s="19">
-        <v>10011395</v>
+        <v>20517769</v>
       </c>
       <c r="AL16" s="19">
-        <v>1061860</v>
+        <v>16380728</v>
       </c>
       <c r="AM16" s="19">
-        <v>20517769</v>
+        <v>5208701</v>
       </c>
       <c r="AN16" s="19">
-        <v>16380728</v>
+        <v>1664173</v>
       </c>
       <c r="AO16" s="19">
-        <v>5208701</v>
+        <v>4500103</v>
       </c>
       <c r="AP16" s="19">
-        <v>1664173</v>
+        <v>8714971</v>
       </c>
       <c r="AQ16" s="19">
-        <v>4500103</v>
+        <v>9491949</v>
       </c>
       <c r="AR16" s="19">
-        <v>8714971</v>
+        <v>5152769</v>
       </c>
       <c r="AS16" s="19">
-        <v>9491949</v>
+        <v>8127056</v>
       </c>
       <c r="AT16" s="19">
-        <v>5152769</v>
+        <v>252720</v>
       </c>
       <c r="AU16" s="19">
-        <v>8127056</v>
+        <v>622262</v>
       </c>
       <c r="AV16" s="19">
-        <v>252720</v>
+        <v>596121</v>
       </c>
       <c r="AW16" s="19">
-        <v>622262</v>
+        <v>769925</v>
       </c>
       <c r="AX16" s="19">
-        <v>596121</v>
+        <v>629675</v>
       </c>
       <c r="AY16" s="19">
-        <v>769925</v>
+        <v>2819053</v>
       </c>
       <c r="AZ16" s="19">
-        <v>629675</v>
+        <v>764371</v>
       </c>
       <c r="BA16" s="19">
-        <v>2819053</v>
+        <v>446801</v>
       </c>
       <c r="BB16" s="19">
-        <v>764371</v>
+        <v>895712</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2691,154 +2691,154 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>156333</v>
+        <v>72972</v>
       </c>
       <c r="F23" s="11">
-        <v>47442</v>
+        <v>169219</v>
       </c>
       <c r="G23" s="11">
-        <v>72972</v>
+        <v>113890</v>
       </c>
       <c r="H23" s="11">
-        <v>169219</v>
+        <v>42498</v>
       </c>
       <c r="I23" s="11">
-        <v>113890</v>
+        <v>40772</v>
       </c>
       <c r="J23" s="11">
-        <v>42498</v>
+        <v>83972</v>
       </c>
       <c r="K23" s="11">
-        <v>40772</v>
+        <v>10103</v>
       </c>
       <c r="L23" s="11">
-        <v>83972</v>
+        <v>158508</v>
       </c>
       <c r="M23" s="11">
-        <v>10103</v>
+        <v>150459</v>
       </c>
       <c r="N23" s="11">
-        <v>158508</v>
+        <v>199438</v>
       </c>
       <c r="O23" s="11">
-        <v>150459</v>
+        <v>146522</v>
       </c>
       <c r="P23" s="11">
-        <v>199438</v>
+        <v>109158</v>
       </c>
       <c r="Q23" s="11">
-        <v>146522</v>
+        <v>152981</v>
       </c>
       <c r="R23" s="11">
-        <v>109158</v>
+        <v>121378</v>
       </c>
       <c r="S23" s="11">
-        <v>152981</v>
+        <v>148215</v>
       </c>
       <c r="T23" s="11">
-        <v>121378</v>
+        <v>84794</v>
       </c>
       <c r="U23" s="11">
-        <v>148215</v>
+        <v>60121</v>
       </c>
       <c r="V23" s="11">
-        <v>84794</v>
+        <v>80623</v>
       </c>
       <c r="W23" s="11">
-        <v>60121</v>
+        <v>180448</v>
       </c>
       <c r="X23" s="11">
-        <v>80623</v>
+        <v>165852</v>
       </c>
       <c r="Y23" s="11">
-        <v>180448</v>
+        <v>136174</v>
       </c>
       <c r="Z23" s="11">
-        <v>165852</v>
+        <v>103920</v>
       </c>
       <c r="AA23" s="11">
-        <v>136174</v>
+        <v>230375</v>
       </c>
       <c r="AB23" s="11">
-        <v>103920</v>
+        <v>222468</v>
       </c>
       <c r="AC23" s="11">
-        <v>230375</v>
+        <v>177026</v>
       </c>
       <c r="AD23" s="11">
-        <v>222468</v>
+        <v>256629</v>
       </c>
       <c r="AE23" s="11">
-        <v>177026</v>
+        <v>161493</v>
       </c>
       <c r="AF23" s="11">
-        <v>256629</v>
+        <v>154749</v>
       </c>
       <c r="AG23" s="11">
-        <v>161493</v>
+        <v>46060</v>
       </c>
       <c r="AH23" s="11">
-        <v>154749</v>
+        <v>135166</v>
       </c>
       <c r="AI23" s="11">
-        <v>46060</v>
+        <v>133340</v>
       </c>
       <c r="AJ23" s="11">
-        <v>135166</v>
+        <v>145345</v>
       </c>
       <c r="AK23" s="11">
-        <v>133340</v>
+        <v>95075</v>
       </c>
       <c r="AL23" s="11">
-        <v>145345</v>
+        <v>92618</v>
       </c>
       <c r="AM23" s="11">
-        <v>95075</v>
+        <v>216920</v>
       </c>
       <c r="AN23" s="11">
-        <v>92618</v>
+        <v>94316</v>
       </c>
       <c r="AO23" s="11">
-        <v>216920</v>
+        <v>150842</v>
       </c>
       <c r="AP23" s="11">
-        <v>94316</v>
+        <v>136620</v>
       </c>
       <c r="AQ23" s="11">
-        <v>150842</v>
+        <v>192084</v>
       </c>
       <c r="AR23" s="11">
-        <v>136620</v>
+        <v>137065</v>
       </c>
       <c r="AS23" s="11">
-        <v>192084</v>
+        <v>44006</v>
       </c>
       <c r="AT23" s="11">
-        <v>137065</v>
+        <v>4650</v>
       </c>
       <c r="AU23" s="11">
-        <v>44006</v>
+        <v>148165</v>
       </c>
       <c r="AV23" s="11">
-        <v>4650</v>
+        <v>129137</v>
       </c>
       <c r="AW23" s="11">
-        <v>148165</v>
+        <v>121464</v>
       </c>
       <c r="AX23" s="11">
-        <v>129137</v>
+        <v>102181</v>
       </c>
       <c r="AY23" s="11">
-        <v>121464</v>
+        <v>188942</v>
       </c>
       <c r="AZ23" s="11">
-        <v>102181</v>
+        <v>137105</v>
       </c>
       <c r="BA23" s="11">
-        <v>188942</v>
+        <v>119711</v>
       </c>
       <c r="BB23" s="11">
-        <v>137105</v>
+        <v>115017</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -2850,154 +2850,154 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>24353</v>
+        <v>24301</v>
       </c>
       <c r="F24" s="13">
-        <v>12564</v>
+        <v>17319</v>
       </c>
       <c r="G24" s="13">
-        <v>24301</v>
+        <v>16705</v>
       </c>
       <c r="H24" s="13">
-        <v>17319</v>
+        <v>14428</v>
       </c>
       <c r="I24" s="13">
-        <v>16705</v>
+        <v>17176</v>
       </c>
       <c r="J24" s="13">
-        <v>14428</v>
+        <v>11702</v>
       </c>
       <c r="K24" s="13">
-        <v>17176</v>
+        <v>10156</v>
       </c>
       <c r="L24" s="13">
-        <v>11702</v>
+        <v>2784</v>
       </c>
       <c r="M24" s="13">
-        <v>10156</v>
+        <v>9319</v>
       </c>
       <c r="N24" s="13">
-        <v>2784</v>
+        <v>17882</v>
       </c>
       <c r="O24" s="13">
-        <v>9319</v>
+        <v>11177</v>
       </c>
       <c r="P24" s="13">
-        <v>17882</v>
+        <v>28090</v>
       </c>
       <c r="Q24" s="13">
-        <v>11177</v>
+        <v>21892</v>
       </c>
       <c r="R24" s="13">
-        <v>28090</v>
+        <v>21707</v>
       </c>
       <c r="S24" s="13">
-        <v>21892</v>
+        <v>40873</v>
       </c>
       <c r="T24" s="13">
-        <v>21707</v>
+        <v>5351</v>
       </c>
       <c r="U24" s="13">
-        <v>40873</v>
+        <v>15647</v>
       </c>
       <c r="V24" s="13">
-        <v>5351</v>
+        <v>3496</v>
       </c>
       <c r="W24" s="13">
-        <v>15647</v>
+        <v>25169</v>
       </c>
       <c r="X24" s="13">
-        <v>3496</v>
+        <v>36191</v>
       </c>
       <c r="Y24" s="13">
-        <v>25169</v>
+        <v>51411</v>
       </c>
       <c r="Z24" s="13">
-        <v>36191</v>
+        <v>36587</v>
       </c>
       <c r="AA24" s="13">
-        <v>51411</v>
+        <v>29027</v>
       </c>
       <c r="AB24" s="13">
-        <v>36587</v>
+        <v>56784</v>
       </c>
       <c r="AC24" s="13">
-        <v>29027</v>
+        <v>49826</v>
       </c>
       <c r="AD24" s="13">
-        <v>56784</v>
+        <v>54122</v>
       </c>
       <c r="AE24" s="13">
-        <v>49826</v>
+        <v>4060</v>
       </c>
       <c r="AF24" s="13">
-        <v>54122</v>
+        <v>12385</v>
       </c>
       <c r="AG24" s="13">
-        <v>4060</v>
+        <v>16171</v>
       </c>
       <c r="AH24" s="13">
-        <v>12385</v>
+        <v>6510</v>
       </c>
       <c r="AI24" s="13">
-        <v>16171</v>
+        <v>30670</v>
       </c>
       <c r="AJ24" s="13">
-        <v>6510</v>
+        <v>24898</v>
       </c>
       <c r="AK24" s="13">
-        <v>30670</v>
+        <v>38127</v>
       </c>
       <c r="AL24" s="13">
-        <v>24898</v>
+        <v>50208</v>
       </c>
       <c r="AM24" s="13">
-        <v>38127</v>
+        <v>57598</v>
       </c>
       <c r="AN24" s="13">
-        <v>50208</v>
+        <v>51518</v>
       </c>
       <c r="AO24" s="13">
-        <v>57598</v>
+        <v>45470</v>
       </c>
       <c r="AP24" s="13">
-        <v>51518</v>
+        <v>33134</v>
       </c>
       <c r="AQ24" s="13">
-        <v>45470</v>
+        <v>47019</v>
       </c>
       <c r="AR24" s="13">
-        <v>33134</v>
+        <v>43620</v>
       </c>
       <c r="AS24" s="13">
-        <v>47019</v>
+        <v>43231</v>
       </c>
       <c r="AT24" s="13">
-        <v>43620</v>
+        <v>9000</v>
       </c>
       <c r="AU24" s="13">
-        <v>43231</v>
+        <v>16860</v>
       </c>
       <c r="AV24" s="13">
-        <v>9000</v>
+        <v>6319</v>
       </c>
       <c r="AW24" s="13">
-        <v>16860</v>
+        <v>15483</v>
       </c>
       <c r="AX24" s="13">
-        <v>6319</v>
+        <v>10478</v>
       </c>
       <c r="AY24" s="13">
-        <v>15483</v>
+        <v>1728</v>
       </c>
       <c r="AZ24" s="13">
-        <v>10478</v>
+        <v>42041</v>
       </c>
       <c r="BA24" s="13">
-        <v>1728</v>
+        <v>20982</v>
       </c>
       <c r="BB24" s="13">
-        <v>42041</v>
+        <v>64479</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3009,154 +3009,154 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>45442</v>
+        <v>72548</v>
       </c>
       <c r="F25" s="11">
-        <v>54906</v>
+        <v>174408</v>
       </c>
       <c r="G25" s="11">
-        <v>72548</v>
+        <v>87722</v>
       </c>
       <c r="H25" s="11">
-        <v>174408</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
-        <v>87722</v>
+        <v>155596</v>
       </c>
       <c r="J25" s="11">
-        <v>0</v>
+        <v>42645</v>
       </c>
       <c r="K25" s="11">
-        <v>155596</v>
+        <v>101601</v>
       </c>
       <c r="L25" s="11">
-        <v>42645</v>
+        <v>81367</v>
       </c>
       <c r="M25" s="11">
-        <v>101601</v>
+        <v>127019</v>
       </c>
       <c r="N25" s="11">
-        <v>81367</v>
+        <v>128419</v>
       </c>
       <c r="O25" s="11">
-        <v>127019</v>
+        <v>94062</v>
       </c>
       <c r="P25" s="11">
-        <v>128419</v>
+        <v>83002</v>
       </c>
       <c r="Q25" s="11">
-        <v>94062</v>
+        <v>72705</v>
       </c>
       <c r="R25" s="11">
-        <v>83002</v>
+        <v>48495</v>
       </c>
       <c r="S25" s="11">
-        <v>72705</v>
+        <v>63642</v>
       </c>
       <c r="T25" s="11">
-        <v>48495</v>
+        <v>65890</v>
       </c>
       <c r="U25" s="11">
-        <v>63642</v>
+        <v>34641</v>
       </c>
       <c r="V25" s="11">
-        <v>65890</v>
+        <v>22667</v>
       </c>
       <c r="W25" s="11">
-        <v>34641</v>
+        <v>64160</v>
       </c>
       <c r="X25" s="11">
-        <v>22667</v>
+        <v>82295</v>
       </c>
       <c r="Y25" s="11">
-        <v>64160</v>
+        <v>92444</v>
       </c>
       <c r="Z25" s="11">
-        <v>82295</v>
+        <v>77876</v>
       </c>
       <c r="AA25" s="11">
-        <v>92444</v>
+        <v>96363</v>
       </c>
       <c r="AB25" s="11">
-        <v>77876</v>
+        <v>115244</v>
       </c>
       <c r="AC25" s="11">
-        <v>96363</v>
+        <v>44274</v>
       </c>
       <c r="AD25" s="11">
-        <v>115244</v>
+        <v>133423</v>
       </c>
       <c r="AE25" s="11">
-        <v>44274</v>
+        <v>53680</v>
       </c>
       <c r="AF25" s="11">
-        <v>133423</v>
+        <v>85160</v>
       </c>
       <c r="AG25" s="11">
-        <v>53680</v>
+        <v>96967</v>
       </c>
       <c r="AH25" s="11">
-        <v>85160</v>
+        <v>2073806</v>
       </c>
       <c r="AI25" s="11">
-        <v>96967</v>
+        <v>9552383</v>
       </c>
       <c r="AJ25" s="11">
-        <v>2073806</v>
+        <v>3354560</v>
       </c>
       <c r="AK25" s="11">
-        <v>9552383</v>
+        <v>21136924</v>
       </c>
       <c r="AL25" s="11">
-        <v>3354560</v>
+        <v>6065303</v>
       </c>
       <c r="AM25" s="11">
-        <v>21136924</v>
+        <v>19067846</v>
       </c>
       <c r="AN25" s="11">
-        <v>6065303</v>
+        <v>4969424</v>
       </c>
       <c r="AO25" s="11">
-        <v>19067846</v>
+        <v>11051669</v>
       </c>
       <c r="AP25" s="11">
-        <v>4969424</v>
+        <v>7034128</v>
       </c>
       <c r="AQ25" s="11">
-        <v>11051669</v>
+        <v>1988191</v>
       </c>
       <c r="AR25" s="11">
-        <v>7034128</v>
+        <v>6448517</v>
       </c>
       <c r="AS25" s="11">
-        <v>1988191</v>
+        <v>5929439</v>
       </c>
       <c r="AT25" s="11">
-        <v>6448517</v>
+        <v>6652127</v>
       </c>
       <c r="AU25" s="11">
-        <v>5929439</v>
+        <v>624279</v>
       </c>
       <c r="AV25" s="11">
-        <v>6652127</v>
+        <v>37566296</v>
       </c>
       <c r="AW25" s="11">
-        <v>624279</v>
+        <v>1268134</v>
       </c>
       <c r="AX25" s="11">
-        <v>37566296</v>
+        <v>10955154</v>
       </c>
       <c r="AY25" s="11">
-        <v>1268134</v>
+        <v>608155</v>
       </c>
       <c r="AZ25" s="11">
-        <v>10955154</v>
+        <v>7266266</v>
       </c>
       <c r="BA25" s="11">
-        <v>608155</v>
+        <v>1677062</v>
       </c>
       <c r="BB25" s="11">
-        <v>7266266</v>
+        <v>695760</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3282,11 +3282,11 @@
       <c r="X27" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Y27" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z27" s="17" t="s">
-        <v>62</v>
+      <c r="Y27" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="17">
+        <v>0</v>
       </c>
       <c r="AA27" s="17">
         <v>0</v>
@@ -3498,95 +3498,95 @@
       <c r="X29" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Y29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z29" s="11" t="s">
-        <v>62</v>
+      <c r="Y29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="11">
+        <v>0</v>
       </c>
       <c r="AA29" s="11">
         <v>0</v>
       </c>
       <c r="AB29" s="11">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AC29" s="11">
         <v>0</v>
       </c>
       <c r="AD29" s="11">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="AE29" s="11">
         <v>0</v>
       </c>
       <c r="AF29" s="11">
-        <v>299</v>
+        <v>4220</v>
       </c>
       <c r="AG29" s="11">
         <v>0</v>
       </c>
       <c r="AH29" s="11">
-        <v>4220</v>
-      </c>
-      <c r="AI29" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AJ29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL29" s="11">
         <v>50</v>
       </c>
+      <c r="AK29" s="11">
+        <v>31000</v>
+      </c>
+      <c r="AL29" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="AM29" s="11">
-        <v>31000</v>
+        <v>2260</v>
       </c>
       <c r="AN29" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AO29" s="11">
-        <v>2260</v>
-      </c>
-      <c r="AP29" s="11" t="s">
-        <v>62</v>
+        <v>2425</v>
+      </c>
+      <c r="AP29" s="11">
+        <v>200</v>
       </c>
       <c r="AQ29" s="11">
-        <v>2425</v>
+        <v>500</v>
       </c>
       <c r="AR29" s="11">
+        <v>12978</v>
+      </c>
+      <c r="AS29" s="11">
+        <v>3000</v>
+      </c>
+      <c r="AT29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW29" s="11">
+        <v>4318</v>
+      </c>
+      <c r="AX29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY29" s="11">
+        <v>2100</v>
+      </c>
+      <c r="AZ29" s="11">
         <v>200</v>
       </c>
-      <c r="AS29" s="11">
-        <v>500</v>
-      </c>
-      <c r="AT29" s="11">
-        <v>12978</v>
-      </c>
-      <c r="AU29" s="11">
-        <v>3000</v>
-      </c>
-      <c r="AV29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY29" s="11">
-        <v>4318</v>
-      </c>
-      <c r="AZ29" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="BA29" s="11">
-        <v>2100</v>
+        <v>1395</v>
       </c>
       <c r="BB29" s="11">
-        <v>200</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3657,41 +3657,41 @@
       <c r="X30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Y30" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z30" s="13" t="s">
-        <v>62</v>
+      <c r="Y30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>0</v>
       </c>
       <c r="AA30" s="13">
         <v>0</v>
       </c>
       <c r="AB30" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC30" s="13">
         <v>0</v>
       </c>
       <c r="AD30" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="13">
         <v>0</v>
       </c>
       <c r="AF30" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG30" s="13">
         <v>0</v>
       </c>
       <c r="AH30" s="13">
-        <v>13</v>
-      </c>
-      <c r="AI30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ30" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AK30" s="13" t="s">
         <v>62</v>
@@ -3714,18 +3714,18 @@
       <c r="AQ30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AR30" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS30" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT30" s="13">
+      <c r="AR30" s="13">
         <v>2</v>
       </c>
-      <c r="AU30" s="13">
+      <c r="AS30" s="13">
         <v>85483</v>
       </c>
+      <c r="AT30" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU30" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="AV30" s="13" t="s">
         <v>62</v>
       </c>
@@ -3741,8 +3741,8 @@
       <c r="AZ30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BA30" s="13" t="s">
-        <v>62</v>
+      <c r="BA30" s="13">
+        <v>30</v>
       </c>
       <c r="BB30" s="13" t="s">
         <v>62</v>
@@ -3816,26 +3816,26 @@
       <c r="X31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Y31" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z31" s="11" t="s">
-        <v>62</v>
+      <c r="Y31" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>0</v>
       </c>
       <c r="AA31" s="11">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AB31" s="11">
         <v>0</v>
       </c>
       <c r="AC31" s="11">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="AD31" s="11">
         <v>0</v>
       </c>
       <c r="AE31" s="11">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="11">
         <v>0</v>
@@ -3846,17 +3846,17 @@
       <c r="AH31" s="11">
         <v>0</v>
       </c>
-      <c r="AI31" s="11">
-        <v>0</v>
+      <c r="AI31" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AJ31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AL31" s="11">
-        <v>1</v>
+      <c r="AL31" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AM31" s="11" t="s">
         <v>62</v>
@@ -3888,20 +3888,20 @@
       <c r="AV31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AW31" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX31" s="11" t="s">
-        <v>62</v>
+      <c r="AW31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="11">
+        <v>2600000</v>
       </c>
       <c r="AY31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AZ31" s="11">
-        <v>2600000</v>
-      </c>
-      <c r="BA31" s="11" t="s">
-        <v>62</v>
+      <c r="AZ31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA31" s="11">
+        <v>0</v>
       </c>
       <c r="BB31" s="11" t="s">
         <v>62</v>
@@ -3973,95 +3973,95 @@
       <c r="X32" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="Y32" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z32" s="19" t="s">
-        <v>62</v>
+      <c r="Y32" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="19">
+        <v>0</v>
       </c>
       <c r="AA32" s="19">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AB32" s="19">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="AC32" s="19">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="AD32" s="19">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="AE32" s="19">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="19">
-        <v>299</v>
+        <v>4233</v>
       </c>
       <c r="AG32" s="19">
         <v>0</v>
       </c>
       <c r="AH32" s="19">
-        <v>4233</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="19">
         <v>0</v>
       </c>
       <c r="AJ32" s="19">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AK32" s="19">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="AL32" s="19">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="19">
-        <v>31000</v>
+        <v>2260</v>
       </c>
       <c r="AN32" s="19">
         <v>0</v>
       </c>
       <c r="AO32" s="19">
-        <v>2260</v>
+        <v>2425</v>
       </c>
       <c r="AP32" s="19">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AQ32" s="19">
-        <v>2425</v>
+        <v>500</v>
       </c>
       <c r="AR32" s="19">
+        <v>12980</v>
+      </c>
+      <c r="AS32" s="19">
+        <v>88483</v>
+      </c>
+      <c r="AT32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="19">
+        <v>4318</v>
+      </c>
+      <c r="AX32" s="19">
+        <v>2600000</v>
+      </c>
+      <c r="AY32" s="19">
+        <v>2100</v>
+      </c>
+      <c r="AZ32" s="19">
         <v>200</v>
       </c>
-      <c r="AS32" s="19">
-        <v>500</v>
-      </c>
-      <c r="AT32" s="19">
-        <v>12980</v>
-      </c>
-      <c r="AU32" s="19">
-        <v>88483</v>
-      </c>
-      <c r="AV32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY32" s="19">
-        <v>4318</v>
-      </c>
-      <c r="AZ32" s="19">
-        <v>2600000</v>
-      </c>
       <c r="BA32" s="19">
-        <v>2100</v>
+        <v>1425</v>
       </c>
       <c r="BB32" s="19">
-        <v>200</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4071,154 +4071,154 @@
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17">
-        <v>226128</v>
+        <v>169821</v>
       </c>
       <c r="F33" s="17">
-        <v>114912</v>
+        <v>360946</v>
       </c>
       <c r="G33" s="17">
-        <v>169821</v>
+        <v>218317</v>
       </c>
       <c r="H33" s="17">
-        <v>360946</v>
+        <v>56926</v>
       </c>
       <c r="I33" s="17">
-        <v>218317</v>
+        <v>213544</v>
       </c>
       <c r="J33" s="17">
-        <v>56926</v>
+        <v>138319</v>
       </c>
       <c r="K33" s="17">
-        <v>213544</v>
+        <v>121860</v>
       </c>
       <c r="L33" s="17">
-        <v>138319</v>
+        <v>242659</v>
       </c>
       <c r="M33" s="17">
-        <v>121860</v>
+        <v>286797</v>
       </c>
       <c r="N33" s="17">
-        <v>242659</v>
+        <v>345739</v>
       </c>
       <c r="O33" s="17">
-        <v>286797</v>
+        <v>251761</v>
       </c>
       <c r="P33" s="17">
-        <v>345739</v>
+        <v>220250</v>
       </c>
       <c r="Q33" s="17">
-        <v>251761</v>
+        <v>247578</v>
       </c>
       <c r="R33" s="17">
-        <v>220250</v>
+        <v>191580</v>
       </c>
       <c r="S33" s="17">
-        <v>247578</v>
+        <v>252730</v>
       </c>
       <c r="T33" s="17">
-        <v>191580</v>
+        <v>156035</v>
       </c>
       <c r="U33" s="17">
-        <v>252730</v>
+        <v>110409</v>
       </c>
       <c r="V33" s="17">
-        <v>156035</v>
+        <v>106786</v>
       </c>
       <c r="W33" s="17">
-        <v>110409</v>
+        <v>269777</v>
       </c>
       <c r="X33" s="17">
-        <v>106786</v>
+        <v>284337</v>
       </c>
       <c r="Y33" s="17">
-        <v>269777</v>
+        <v>280029</v>
       </c>
       <c r="Z33" s="17">
-        <v>284337</v>
+        <v>218383</v>
       </c>
       <c r="AA33" s="17">
-        <v>280029</v>
+        <v>356185</v>
       </c>
       <c r="AB33" s="17">
-        <v>218383</v>
+        <v>394831</v>
       </c>
       <c r="AC33" s="17">
-        <v>356185</v>
+        <v>271186</v>
       </c>
       <c r="AD33" s="17">
-        <v>394831</v>
+        <v>444473</v>
       </c>
       <c r="AE33" s="17">
-        <v>271186</v>
+        <v>219233</v>
       </c>
       <c r="AF33" s="17">
-        <v>444473</v>
+        <v>256527</v>
       </c>
       <c r="AG33" s="17">
-        <v>219233</v>
+        <v>159198</v>
       </c>
       <c r="AH33" s="17">
-        <v>256527</v>
+        <v>2215482</v>
       </c>
       <c r="AI33" s="17">
-        <v>159198</v>
+        <v>9716393</v>
       </c>
       <c r="AJ33" s="17">
-        <v>2215482</v>
+        <v>3524854</v>
       </c>
       <c r="AK33" s="17">
-        <v>9716393</v>
+        <v>21301126</v>
       </c>
       <c r="AL33" s="17">
-        <v>3524854</v>
+        <v>6208129</v>
       </c>
       <c r="AM33" s="17">
-        <v>21301126</v>
+        <v>19344624</v>
       </c>
       <c r="AN33" s="17">
-        <v>6208129</v>
+        <v>5115258</v>
       </c>
       <c r="AO33" s="17">
-        <v>19344624</v>
+        <v>11250406</v>
       </c>
       <c r="AP33" s="17">
-        <v>5115258</v>
+        <v>7204082</v>
       </c>
       <c r="AQ33" s="17">
-        <v>11250406</v>
+        <v>2227794</v>
       </c>
       <c r="AR33" s="17">
-        <v>7204082</v>
+        <v>6642182</v>
       </c>
       <c r="AS33" s="17">
-        <v>2227794</v>
+        <v>6105159</v>
       </c>
       <c r="AT33" s="17">
-        <v>6642182</v>
+        <v>6665777</v>
       </c>
       <c r="AU33" s="17">
-        <v>6105159</v>
+        <v>789304</v>
       </c>
       <c r="AV33" s="17">
-        <v>6665777</v>
+        <v>37701752</v>
       </c>
       <c r="AW33" s="17">
-        <v>789304</v>
+        <v>1409399</v>
       </c>
       <c r="AX33" s="17">
-        <v>37701752</v>
+        <v>13667813</v>
       </c>
       <c r="AY33" s="17">
-        <v>1409399</v>
+        <v>800925</v>
       </c>
       <c r="AZ33" s="17">
-        <v>13667813</v>
+        <v>7445612</v>
       </c>
       <c r="BA33" s="17">
-        <v>800925</v>
+        <v>1819180</v>
       </c>
       <c r="BB33" s="17">
-        <v>7445612</v>
+        <v>875710</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4664,154 +4664,154 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>159467</v>
+        <v>72459</v>
       </c>
       <c r="F40" s="11">
-        <v>43776</v>
+        <v>144679</v>
       </c>
       <c r="G40" s="11">
-        <v>72459</v>
+        <v>104055</v>
       </c>
       <c r="H40" s="11">
-        <v>144679</v>
+        <v>43152</v>
       </c>
       <c r="I40" s="11">
-        <v>104055</v>
+        <v>21614</v>
       </c>
       <c r="J40" s="11">
-        <v>43152</v>
+        <v>69180</v>
       </c>
       <c r="K40" s="11">
-        <v>21614</v>
+        <v>84304</v>
       </c>
       <c r="L40" s="11">
-        <v>69180</v>
+        <v>166642</v>
       </c>
       <c r="M40" s="11">
-        <v>84304</v>
+        <v>138482</v>
       </c>
       <c r="N40" s="11">
-        <v>166642</v>
+        <v>127096</v>
       </c>
       <c r="O40" s="11">
-        <v>138482</v>
+        <v>150784</v>
       </c>
       <c r="P40" s="11">
-        <v>127096</v>
+        <v>224956</v>
       </c>
       <c r="Q40" s="11">
-        <v>150784</v>
+        <v>37700</v>
       </c>
       <c r="R40" s="11">
-        <v>224956</v>
+        <v>137220</v>
       </c>
       <c r="S40" s="11">
-        <v>37700</v>
+        <v>181297</v>
       </c>
       <c r="T40" s="11">
-        <v>137220</v>
+        <v>91609</v>
       </c>
       <c r="U40" s="11">
-        <v>181297</v>
+        <v>64240</v>
       </c>
       <c r="V40" s="11">
-        <v>91609</v>
+        <v>126645</v>
       </c>
       <c r="W40" s="11">
-        <v>64240</v>
+        <v>272031</v>
       </c>
       <c r="X40" s="11">
-        <v>126645</v>
+        <v>242143</v>
       </c>
       <c r="Y40" s="11">
-        <v>272031</v>
+        <v>240253</v>
       </c>
       <c r="Z40" s="11">
-        <v>242143</v>
+        <v>316454</v>
       </c>
       <c r="AA40" s="11">
-        <v>240253</v>
+        <v>463591</v>
       </c>
       <c r="AB40" s="11">
-        <v>316454</v>
+        <v>423534</v>
       </c>
       <c r="AC40" s="11">
-        <v>463591</v>
+        <v>432070</v>
       </c>
       <c r="AD40" s="11">
-        <v>423534</v>
+        <v>555472</v>
       </c>
       <c r="AE40" s="11">
-        <v>432070</v>
+        <v>429292</v>
       </c>
       <c r="AF40" s="11">
-        <v>555472</v>
+        <v>449098</v>
       </c>
       <c r="AG40" s="11">
-        <v>429292</v>
+        <v>117536</v>
       </c>
       <c r="AH40" s="11">
-        <v>449098</v>
+        <v>427931</v>
       </c>
       <c r="AI40" s="11">
-        <v>117536</v>
+        <v>463083</v>
       </c>
       <c r="AJ40" s="11">
-        <v>427931</v>
+        <v>586980</v>
       </c>
       <c r="AK40" s="11">
-        <v>463083</v>
+        <v>384648</v>
       </c>
       <c r="AL40" s="11">
-        <v>586980</v>
+        <v>312238</v>
       </c>
       <c r="AM40" s="11">
-        <v>384648</v>
+        <v>795186</v>
       </c>
       <c r="AN40" s="11">
-        <v>312238</v>
+        <v>347212</v>
       </c>
       <c r="AO40" s="11">
-        <v>795186</v>
+        <v>537362</v>
       </c>
       <c r="AP40" s="11">
-        <v>347212</v>
+        <v>507961</v>
       </c>
       <c r="AQ40" s="11">
-        <v>537362</v>
+        <v>746813</v>
       </c>
       <c r="AR40" s="11">
-        <v>507961</v>
+        <v>751357</v>
       </c>
       <c r="AS40" s="11">
-        <v>746813</v>
+        <v>270950</v>
       </c>
       <c r="AT40" s="11">
-        <v>751357</v>
+        <v>64077</v>
       </c>
       <c r="AU40" s="11">
-        <v>270950</v>
+        <v>637157</v>
       </c>
       <c r="AV40" s="11">
-        <v>64077</v>
+        <v>555701</v>
       </c>
       <c r="AW40" s="11">
-        <v>637157</v>
+        <v>759655</v>
       </c>
       <c r="AX40" s="11">
-        <v>555701</v>
+        <v>787948</v>
       </c>
       <c r="AY40" s="11">
-        <v>759655</v>
+        <v>1152750</v>
       </c>
       <c r="AZ40" s="11">
-        <v>787948</v>
+        <v>748236</v>
       </c>
       <c r="BA40" s="11">
-        <v>1152750</v>
+        <v>526878</v>
       </c>
       <c r="BB40" s="11">
-        <v>748236</v>
+        <v>585952</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -4823,154 +4823,154 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>58808</v>
+        <v>173497</v>
       </c>
       <c r="F41" s="13">
-        <v>208015</v>
+        <v>81192</v>
       </c>
       <c r="G41" s="13">
-        <v>173497</v>
+        <v>60126</v>
       </c>
       <c r="H41" s="13">
-        <v>81192</v>
+        <v>86936</v>
       </c>
       <c r="I41" s="13">
-        <v>60126</v>
+        <v>68326</v>
       </c>
       <c r="J41" s="13">
-        <v>86936</v>
+        <v>73438</v>
       </c>
       <c r="K41" s="13">
-        <v>68326</v>
+        <v>98541</v>
       </c>
       <c r="L41" s="13">
-        <v>73438</v>
+        <v>87313</v>
       </c>
       <c r="M41" s="13">
-        <v>98541</v>
+        <v>153284</v>
       </c>
       <c r="N41" s="13">
-        <v>87313</v>
+        <v>129932</v>
       </c>
       <c r="O41" s="13">
-        <v>153284</v>
+        <v>96034</v>
       </c>
       <c r="P41" s="13">
-        <v>129932</v>
+        <v>51336</v>
       </c>
       <c r="Q41" s="13">
-        <v>96034</v>
+        <v>196868</v>
       </c>
       <c r="R41" s="13">
-        <v>51336</v>
+        <v>293758</v>
       </c>
       <c r="S41" s="13">
-        <v>196868</v>
+        <v>340851</v>
       </c>
       <c r="T41" s="13">
-        <v>293758</v>
+        <v>130582</v>
       </c>
       <c r="U41" s="13">
-        <v>340851</v>
+        <v>32255</v>
       </c>
       <c r="V41" s="13">
-        <v>130582</v>
+        <v>76963</v>
       </c>
       <c r="W41" s="13">
-        <v>32255</v>
+        <v>172787</v>
       </c>
       <c r="X41" s="13">
-        <v>76963</v>
+        <v>265621</v>
       </c>
       <c r="Y41" s="13">
-        <v>172787</v>
+        <v>266329</v>
       </c>
       <c r="Z41" s="13">
-        <v>265621</v>
+        <v>258569</v>
       </c>
       <c r="AA41" s="13">
-        <v>266329</v>
+        <v>201936</v>
       </c>
       <c r="AB41" s="13">
-        <v>258569</v>
+        <v>289579</v>
       </c>
       <c r="AC41" s="13">
-        <v>201936</v>
+        <v>104333</v>
       </c>
       <c r="AD41" s="13">
-        <v>289579</v>
+        <v>470843</v>
       </c>
       <c r="AE41" s="13">
-        <v>104333</v>
+        <v>179277</v>
       </c>
       <c r="AF41" s="13">
-        <v>470843</v>
+        <v>111441</v>
       </c>
       <c r="AG41" s="13">
-        <v>179277</v>
+        <v>38005</v>
       </c>
       <c r="AH41" s="13">
-        <v>111441</v>
+        <v>310992</v>
       </c>
       <c r="AI41" s="13">
-        <v>38005</v>
+        <v>280571</v>
       </c>
       <c r="AJ41" s="13">
-        <v>310992</v>
+        <v>129580</v>
       </c>
       <c r="AK41" s="13">
-        <v>280571</v>
+        <v>553893</v>
       </c>
       <c r="AL41" s="13">
-        <v>129580</v>
+        <v>261054</v>
       </c>
       <c r="AM41" s="13">
-        <v>553893</v>
+        <v>316426</v>
       </c>
       <c r="AN41" s="13">
-        <v>261054</v>
+        <v>98768</v>
       </c>
       <c r="AO41" s="13">
-        <v>316426</v>
+        <v>150806</v>
       </c>
       <c r="AP41" s="13">
-        <v>98768</v>
+        <v>158412</v>
       </c>
       <c r="AQ41" s="13">
-        <v>150806</v>
+        <v>229498</v>
       </c>
       <c r="AR41" s="13">
-        <v>158412</v>
+        <v>121830</v>
       </c>
       <c r="AS41" s="13">
-        <v>229498</v>
+        <v>128823</v>
       </c>
       <c r="AT41" s="13">
-        <v>121830</v>
+        <v>354100</v>
       </c>
       <c r="AU41" s="13">
-        <v>128823</v>
+        <v>385055</v>
       </c>
       <c r="AV41" s="13">
-        <v>354100</v>
+        <v>157718</v>
       </c>
       <c r="AW41" s="13">
-        <v>385055</v>
+        <v>92697</v>
       </c>
       <c r="AX41" s="13">
-        <v>157718</v>
+        <v>93234</v>
       </c>
       <c r="AY41" s="13">
-        <v>92697</v>
+        <v>143590</v>
       </c>
       <c r="AZ41" s="13">
-        <v>93234</v>
+        <v>128039</v>
       </c>
       <c r="BA41" s="13">
-        <v>143590</v>
+        <v>114425</v>
       </c>
       <c r="BB41" s="13">
-        <v>128039</v>
+        <v>219407</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -4982,154 +4982,154 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>12481</v>
+        <v>17981</v>
       </c>
       <c r="F42" s="11">
-        <v>12332</v>
+        <v>42800</v>
       </c>
       <c r="G42" s="11">
-        <v>17981</v>
+        <v>24384</v>
       </c>
       <c r="H42" s="11">
-        <v>42800</v>
+        <v>0</v>
       </c>
       <c r="I42" s="11">
-        <v>24384</v>
+        <v>54039</v>
       </c>
       <c r="J42" s="11">
-        <v>0</v>
+        <v>16371</v>
       </c>
       <c r="K42" s="11">
-        <v>54039</v>
+        <v>34588</v>
       </c>
       <c r="L42" s="11">
-        <v>16371</v>
+        <v>31044</v>
       </c>
       <c r="M42" s="11">
-        <v>34588</v>
+        <v>50160</v>
       </c>
       <c r="N42" s="11">
-        <v>31044</v>
+        <v>40336</v>
       </c>
       <c r="O42" s="11">
-        <v>50160</v>
+        <v>35254</v>
       </c>
       <c r="P42" s="11">
-        <v>40336</v>
+        <v>35169</v>
       </c>
       <c r="Q42" s="11">
-        <v>35254</v>
+        <v>33482</v>
       </c>
       <c r="R42" s="11">
-        <v>35169</v>
+        <v>25050</v>
       </c>
       <c r="S42" s="11">
-        <v>33482</v>
+        <v>40143</v>
       </c>
       <c r="T42" s="11">
-        <v>25050</v>
+        <v>44834</v>
       </c>
       <c r="U42" s="11">
-        <v>40143</v>
+        <v>10706</v>
       </c>
       <c r="V42" s="11">
-        <v>44834</v>
+        <v>9958</v>
       </c>
       <c r="W42" s="11">
-        <v>10706</v>
+        <v>37176</v>
       </c>
       <c r="X42" s="11">
-        <v>9958</v>
+        <v>43358</v>
       </c>
       <c r="Y42" s="11">
-        <v>37176</v>
+        <v>68361</v>
       </c>
       <c r="Z42" s="11">
-        <v>43358</v>
+        <v>75538</v>
       </c>
       <c r="AA42" s="11">
-        <v>68361</v>
+        <v>126376</v>
       </c>
       <c r="AB42" s="11">
-        <v>75538</v>
+        <v>99815</v>
       </c>
       <c r="AC42" s="11">
-        <v>126376</v>
+        <v>109472</v>
       </c>
       <c r="AD42" s="11">
-        <v>99815</v>
+        <v>152129</v>
       </c>
       <c r="AE42" s="11">
-        <v>109472</v>
+        <v>54342</v>
       </c>
       <c r="AF42" s="11">
-        <v>152129</v>
+        <v>61172</v>
       </c>
       <c r="AG42" s="11">
-        <v>54342</v>
+        <v>75863</v>
       </c>
       <c r="AH42" s="11">
-        <v>61172</v>
+        <v>28486</v>
       </c>
       <c r="AI42" s="11">
-        <v>75863</v>
+        <v>103913</v>
       </c>
       <c r="AJ42" s="11">
-        <v>28486</v>
+        <v>57308</v>
       </c>
       <c r="AK42" s="11">
-        <v>103913</v>
+        <v>154109</v>
       </c>
       <c r="AL42" s="11">
-        <v>57308</v>
+        <v>73034</v>
       </c>
       <c r="AM42" s="11">
-        <v>154109</v>
+        <v>153291</v>
       </c>
       <c r="AN42" s="11">
-        <v>73034</v>
+        <v>75420</v>
       </c>
       <c r="AO42" s="11">
-        <v>153291</v>
+        <v>83758</v>
       </c>
       <c r="AP42" s="11">
-        <v>75420</v>
+        <v>76320</v>
       </c>
       <c r="AQ42" s="11">
-        <v>83758</v>
+        <v>68947</v>
       </c>
       <c r="AR42" s="11">
-        <v>76320</v>
+        <v>104804</v>
       </c>
       <c r="AS42" s="11">
-        <v>68947</v>
+        <v>74739</v>
       </c>
       <c r="AT42" s="11">
-        <v>104804</v>
+        <v>65582</v>
       </c>
       <c r="AU42" s="11">
-        <v>74739</v>
+        <v>14761</v>
       </c>
       <c r="AV42" s="11">
-        <v>65582</v>
+        <v>302901</v>
       </c>
       <c r="AW42" s="11">
-        <v>14761</v>
+        <v>197218</v>
       </c>
       <c r="AX42" s="11">
-        <v>302901</v>
+        <v>187527</v>
       </c>
       <c r="AY42" s="11">
-        <v>197218</v>
+        <v>163829</v>
       </c>
       <c r="AZ42" s="11">
-        <v>187527</v>
+        <v>162577</v>
       </c>
       <c r="BA42" s="11">
-        <v>163829</v>
+        <v>110259</v>
       </c>
       <c r="BB42" s="11">
-        <v>162577</v>
+        <v>163013</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5257,11 +5257,11 @@
       <c r="X44" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Y44" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z44" s="17" t="s">
-        <v>62</v>
+      <c r="Y44" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="17">
+        <v>0</v>
       </c>
       <c r="AA44" s="17">
         <v>0</v>
@@ -5473,95 +5473,95 @@
       <c r="X46" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Y46" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z46" s="11" t="s">
-        <v>62</v>
+      <c r="Y46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="11">
+        <v>0</v>
       </c>
       <c r="AA46" s="11">
         <v>0</v>
       </c>
       <c r="AB46" s="11">
-        <v>0</v>
+        <v>-1376</v>
       </c>
       <c r="AC46" s="11">
         <v>0</v>
       </c>
       <c r="AD46" s="11">
-        <v>-1376</v>
+        <v>-389</v>
       </c>
       <c r="AE46" s="11">
         <v>0</v>
       </c>
       <c r="AF46" s="11">
-        <v>-389</v>
+        <v>-6963</v>
       </c>
       <c r="AG46" s="11">
         <v>0</v>
       </c>
       <c r="AH46" s="11">
-        <v>-6963</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="11">
         <v>0</v>
       </c>
       <c r="AJ46" s="11">
-        <v>0</v>
+        <v>-610</v>
       </c>
       <c r="AK46" s="11">
-        <v>0</v>
+        <v>-111600</v>
       </c>
       <c r="AL46" s="11">
-        <v>-610</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="11">
-        <v>-111600</v>
+        <v>-2642</v>
       </c>
       <c r="AN46" s="11">
         <v>0</v>
       </c>
       <c r="AO46" s="11">
-        <v>-2642</v>
+        <v>-12086</v>
       </c>
       <c r="AP46" s="11">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="AQ46" s="11">
-        <v>-12086</v>
+        <v>-2300</v>
       </c>
       <c r="AR46" s="11">
-        <v>-2700</v>
+        <v>-69506</v>
       </c>
       <c r="AS46" s="11">
-        <v>-2300</v>
-      </c>
-      <c r="AT46" s="11">
-        <v>-69506</v>
-      </c>
-      <c r="AU46" s="11">
         <v>-6450</v>
       </c>
-      <c r="AV46" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW46" s="11" t="s">
-        <v>62</v>
+      <c r="AT46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="11">
+        <v>-25829</v>
       </c>
       <c r="AX46" s="11">
         <v>0</v>
       </c>
       <c r="AY46" s="11">
-        <v>-25811</v>
+        <v>-28447</v>
       </c>
       <c r="AZ46" s="11">
-        <v>0</v>
+        <v>-740</v>
       </c>
       <c r="BA46" s="11">
-        <v>-28447</v>
+        <v>-21034</v>
       </c>
       <c r="BB46" s="11">
-        <v>-740</v>
+        <v>-28164</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5632,35 +5632,35 @@
       <c r="X47" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Y47" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z47" s="13" t="s">
-        <v>62</v>
+      <c r="Y47" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="13">
+        <v>0</v>
       </c>
       <c r="AA47" s="13">
         <v>0</v>
       </c>
       <c r="AB47" s="13">
-        <v>0</v>
+        <v>-4650</v>
       </c>
       <c r="AC47" s="13">
         <v>0</v>
       </c>
       <c r="AD47" s="13">
-        <v>-4650</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="13">
         <v>0</v>
       </c>
       <c r="AF47" s="13">
-        <v>0</v>
+        <v>-20723</v>
       </c>
       <c r="AG47" s="13">
         <v>0</v>
       </c>
       <c r="AH47" s="13">
-        <v>-20723</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="13">
         <v>0</v>
@@ -5690,17 +5690,17 @@
         <v>0</v>
       </c>
       <c r="AR47" s="13">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="AS47" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT47" s="13">
-        <v>-2400</v>
-      </c>
-      <c r="AU47" s="13">
         <v>-693</v>
       </c>
+      <c r="AT47" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU47" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="AV47" s="13" t="s">
         <v>62</v>
       </c>
@@ -5716,11 +5716,11 @@
       <c r="AZ47" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BA47" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB47" s="13" t="s">
-        <v>62</v>
+      <c r="BA47" s="13">
+        <v>-49500</v>
+      </c>
+      <c r="BB47" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5791,26 +5791,26 @@
       <c r="X48" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Y48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z48" s="11" t="s">
-        <v>62</v>
+      <c r="Y48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="11">
+        <v>0</v>
       </c>
       <c r="AA48" s="11">
-        <v>0</v>
+        <v>-264</v>
       </c>
       <c r="AB48" s="11">
         <v>0</v>
       </c>
       <c r="AC48" s="11">
-        <v>-264</v>
+        <v>-38</v>
       </c>
       <c r="AD48" s="11">
         <v>0</v>
       </c>
       <c r="AE48" s="11">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="11">
         <v>0</v>
@@ -5854,26 +5854,26 @@
       <c r="AS48" s="11">
         <v>0</v>
       </c>
-      <c r="AT48" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU48" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW48" s="11" t="s">
-        <v>62</v>
+      <c r="AT48" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU48" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="11">
+        <v>0</v>
       </c>
       <c r="AX48" s="11">
-        <v>0</v>
+        <v>-3385</v>
       </c>
       <c r="AY48" s="11">
         <v>0</v>
       </c>
       <c r="AZ48" s="11">
-        <v>-3385</v>
+        <v>0</v>
       </c>
       <c r="BA48" s="11">
         <v>0</v>
@@ -5950,95 +5950,95 @@
       <c r="X49" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="Y49" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z49" s="19" t="s">
-        <v>62</v>
+      <c r="Y49" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="19">
+        <v>0</v>
       </c>
       <c r="AA49" s="19">
-        <v>0</v>
+        <v>-264</v>
       </c>
       <c r="AB49" s="19">
-        <v>0</v>
+        <v>-6026</v>
       </c>
       <c r="AC49" s="19">
-        <v>-264</v>
+        <v>-38</v>
       </c>
       <c r="AD49" s="19">
-        <v>-6026</v>
+        <v>-389</v>
       </c>
       <c r="AE49" s="19">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="19">
-        <v>-389</v>
+        <v>-27686</v>
       </c>
       <c r="AG49" s="19">
         <v>0</v>
       </c>
       <c r="AH49" s="19">
-        <v>-27686</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="19">
         <v>0</v>
       </c>
       <c r="AJ49" s="19">
-        <v>0</v>
+        <v>-610</v>
       </c>
       <c r="AK49" s="19">
-        <v>0</v>
+        <v>-111600</v>
       </c>
       <c r="AL49" s="19">
-        <v>-610</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="19">
-        <v>-111600</v>
+        <v>-2642</v>
       </c>
       <c r="AN49" s="19">
         <v>0</v>
       </c>
       <c r="AO49" s="19">
-        <v>-2642</v>
+        <v>-12086</v>
       </c>
       <c r="AP49" s="19">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="AQ49" s="19">
-        <v>-12086</v>
+        <v>-2300</v>
       </c>
       <c r="AR49" s="19">
-        <v>-2700</v>
+        <v>-71906</v>
       </c>
       <c r="AS49" s="19">
-        <v>-2300</v>
+        <v>-7143</v>
       </c>
       <c r="AT49" s="19">
-        <v>-71906</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="19">
-        <v>-7143</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="19">
         <v>0</v>
       </c>
       <c r="AW49" s="19">
-        <v>0</v>
+        <v>-25829</v>
       </c>
       <c r="AX49" s="19">
-        <v>0</v>
+        <v>-3385</v>
       </c>
       <c r="AY49" s="19">
-        <v>-25811</v>
+        <v>-28447</v>
       </c>
       <c r="AZ49" s="19">
-        <v>-3385</v>
+        <v>-740</v>
       </c>
       <c r="BA49" s="19">
-        <v>-28447</v>
+        <v>-70534</v>
       </c>
       <c r="BB49" s="19">
-        <v>-740</v>
+        <v>-28164</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6166,95 +6166,95 @@
       <c r="X51" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Y51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z51" s="11" t="s">
-        <v>62</v>
+      <c r="Y51" s="11">
+        <v>-4712</v>
+      </c>
+      <c r="Z51" s="11">
+        <v>-1713</v>
       </c>
       <c r="AA51" s="11">
-        <v>-4712</v>
+        <v>-4214</v>
       </c>
       <c r="AB51" s="11">
-        <v>-1713</v>
+        <v>-3731</v>
       </c>
       <c r="AC51" s="11">
-        <v>-4214</v>
+        <v>-3669</v>
       </c>
       <c r="AD51" s="11">
-        <v>-3731</v>
+        <v>-13876</v>
       </c>
       <c r="AE51" s="11">
-        <v>-3669</v>
+        <v>-6437</v>
       </c>
       <c r="AF51" s="11">
-        <v>-13876</v>
+        <v>-19574</v>
       </c>
       <c r="AG51" s="11">
-        <v>-6437</v>
+        <v>-20941</v>
       </c>
       <c r="AH51" s="11">
-        <v>-19574</v>
+        <v>-11781</v>
       </c>
       <c r="AI51" s="11">
-        <v>-20941</v>
+        <v>-9999</v>
       </c>
       <c r="AJ51" s="11">
-        <v>-11781</v>
+        <v>-5291</v>
       </c>
       <c r="AK51" s="11">
-        <v>-9999</v>
+        <v>-3480</v>
       </c>
       <c r="AL51" s="11">
-        <v>-5291</v>
+        <v>-8188</v>
       </c>
       <c r="AM51" s="11">
-        <v>-3480</v>
+        <v>-18964</v>
       </c>
       <c r="AN51" s="11">
-        <v>-8188</v>
+        <v>-10619</v>
       </c>
       <c r="AO51" s="11">
-        <v>-18964</v>
+        <v>-10522</v>
       </c>
       <c r="AP51" s="11">
-        <v>-10619</v>
+        <v>-18071</v>
       </c>
       <c r="AQ51" s="11">
-        <v>-10522</v>
+        <v>-10544</v>
       </c>
       <c r="AR51" s="11">
-        <v>-18071</v>
+        <v>-25394</v>
       </c>
       <c r="AS51" s="11">
-        <v>-10544</v>
+        <v>-14139</v>
       </c>
       <c r="AT51" s="11">
-        <v>-25394</v>
+        <v>-5723</v>
       </c>
       <c r="AU51" s="11">
-        <v>-14139</v>
+        <v>-2000</v>
       </c>
       <c r="AV51" s="11">
-        <v>-5723</v>
+        <v>-28450</v>
       </c>
       <c r="AW51" s="11">
-        <v>-2000</v>
+        <v>-23140</v>
       </c>
       <c r="AX51" s="11">
-        <v>-28450</v>
+        <v>-20360</v>
       </c>
       <c r="AY51" s="11">
-        <v>-23140</v>
+        <v>-30812</v>
       </c>
       <c r="AZ51" s="11">
-        <v>-20360</v>
+        <v>-37166</v>
       </c>
       <c r="BA51" s="11">
-        <v>-30812</v>
+        <v>-17216</v>
       </c>
       <c r="BB51" s="11">
-        <v>-37166</v>
+        <v>-33401</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6264,154 +6264,154 @@
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19">
-        <v>230756</v>
+        <v>263937</v>
       </c>
       <c r="F52" s="19">
-        <v>264123</v>
+        <v>268671</v>
       </c>
       <c r="G52" s="19">
-        <v>263937</v>
+        <v>188565</v>
       </c>
       <c r="H52" s="19">
-        <v>268671</v>
+        <v>130088</v>
       </c>
       <c r="I52" s="19">
-        <v>188565</v>
+        <v>143979</v>
       </c>
       <c r="J52" s="19">
-        <v>130088</v>
+        <v>158989</v>
       </c>
       <c r="K52" s="19">
-        <v>143979</v>
+        <v>217433</v>
       </c>
       <c r="L52" s="19">
-        <v>158989</v>
+        <v>284999</v>
       </c>
       <c r="M52" s="19">
-        <v>217433</v>
+        <v>341926</v>
       </c>
       <c r="N52" s="19">
-        <v>284999</v>
+        <v>297364</v>
       </c>
       <c r="O52" s="19">
-        <v>341926</v>
+        <v>282072</v>
       </c>
       <c r="P52" s="19">
-        <v>297364</v>
+        <v>311461</v>
       </c>
       <c r="Q52" s="19">
-        <v>282072</v>
+        <v>268050</v>
       </c>
       <c r="R52" s="19">
-        <v>311461</v>
+        <v>456028</v>
       </c>
       <c r="S52" s="19">
-        <v>268050</v>
+        <v>562291</v>
       </c>
       <c r="T52" s="19">
-        <v>456028</v>
+        <v>267025</v>
       </c>
       <c r="U52" s="19">
-        <v>562291</v>
+        <v>107201</v>
       </c>
       <c r="V52" s="19">
-        <v>267025</v>
+        <v>213566</v>
       </c>
       <c r="W52" s="19">
-        <v>107201</v>
+        <v>481994</v>
       </c>
       <c r="X52" s="19">
-        <v>213566</v>
+        <v>551123</v>
       </c>
       <c r="Y52" s="19">
-        <v>481994</v>
+        <v>570231</v>
       </c>
       <c r="Z52" s="19">
-        <v>551123</v>
+        <v>648848</v>
       </c>
       <c r="AA52" s="19">
-        <v>570231</v>
+        <v>787425</v>
       </c>
       <c r="AB52" s="19">
-        <v>648848</v>
+        <v>803171</v>
       </c>
       <c r="AC52" s="19">
-        <v>787425</v>
+        <v>642168</v>
       </c>
       <c r="AD52" s="19">
-        <v>803171</v>
+        <v>1164179</v>
       </c>
       <c r="AE52" s="19">
-        <v>642168</v>
+        <v>656474</v>
       </c>
       <c r="AF52" s="19">
-        <v>1164179</v>
+        <v>574451</v>
       </c>
       <c r="AG52" s="19">
-        <v>656474</v>
+        <v>210463</v>
       </c>
       <c r="AH52" s="19">
-        <v>574451</v>
+        <v>755628</v>
       </c>
       <c r="AI52" s="19">
-        <v>210463</v>
+        <v>837568</v>
       </c>
       <c r="AJ52" s="19">
-        <v>755628</v>
+        <v>767967</v>
       </c>
       <c r="AK52" s="19">
-        <v>837568</v>
+        <v>977570</v>
       </c>
       <c r="AL52" s="19">
-        <v>767967</v>
+        <v>638138</v>
       </c>
       <c r="AM52" s="19">
-        <v>977570</v>
+        <v>1243297</v>
       </c>
       <c r="AN52" s="19">
-        <v>638138</v>
+        <v>510781</v>
       </c>
       <c r="AO52" s="19">
-        <v>1243297</v>
+        <v>749318</v>
       </c>
       <c r="AP52" s="19">
-        <v>510781</v>
+        <v>721922</v>
       </c>
       <c r="AQ52" s="19">
-        <v>749318</v>
+        <v>1032414</v>
       </c>
       <c r="AR52" s="19">
-        <v>721922</v>
+        <v>880691</v>
       </c>
       <c r="AS52" s="19">
-        <v>1032414</v>
+        <v>453230</v>
       </c>
       <c r="AT52" s="19">
-        <v>880691</v>
+        <v>478036</v>
       </c>
       <c r="AU52" s="19">
-        <v>453230</v>
+        <v>1034973</v>
       </c>
       <c r="AV52" s="19">
-        <v>478036</v>
+        <v>987870</v>
       </c>
       <c r="AW52" s="19">
-        <v>1034973</v>
+        <v>1000601</v>
       </c>
       <c r="AX52" s="19">
-        <v>987870</v>
+        <v>1044964</v>
       </c>
       <c r="AY52" s="19">
-        <v>1000619</v>
+        <v>1400910</v>
       </c>
       <c r="AZ52" s="19">
-        <v>1044964</v>
+        <v>1000946</v>
       </c>
       <c r="BA52" s="19">
-        <v>1400910</v>
+        <v>663812</v>
       </c>
       <c r="BB52" s="19">
-        <v>1000946</v>
+        <v>906807</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6857,154 +6857,154 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>1020047</v>
+        <v>992970</v>
       </c>
       <c r="F59" s="11">
-        <v>922727</v>
+        <v>854981</v>
       </c>
       <c r="G59" s="11">
-        <v>992970</v>
+        <v>913645</v>
       </c>
       <c r="H59" s="11">
-        <v>854981</v>
+        <v>1015389</v>
       </c>
       <c r="I59" s="11">
-        <v>913645</v>
+        <v>530119</v>
       </c>
       <c r="J59" s="11">
-        <v>1015389</v>
+        <v>823846</v>
       </c>
       <c r="K59" s="11">
-        <v>530119</v>
+        <v>8344452</v>
       </c>
       <c r="L59" s="11">
-        <v>823846</v>
+        <v>1051316</v>
       </c>
       <c r="M59" s="11">
-        <v>8344452</v>
+        <v>920397</v>
       </c>
       <c r="N59" s="11">
-        <v>1051316</v>
+        <v>637271</v>
       </c>
       <c r="O59" s="11">
-        <v>920397</v>
+        <v>1029088</v>
       </c>
       <c r="P59" s="11">
-        <v>637271</v>
+        <v>2060829</v>
       </c>
       <c r="Q59" s="11">
-        <v>1029088</v>
+        <v>246436</v>
       </c>
       <c r="R59" s="11">
-        <v>2060829</v>
+        <v>1130518</v>
       </c>
       <c r="S59" s="11">
-        <v>246436</v>
+        <v>1223203</v>
       </c>
       <c r="T59" s="11">
-        <v>1130518</v>
+        <v>1080371</v>
       </c>
       <c r="U59" s="11">
-        <v>1223203</v>
+        <v>1068512</v>
       </c>
       <c r="V59" s="11">
-        <v>1080371</v>
+        <v>1570817</v>
       </c>
       <c r="W59" s="11">
-        <v>1068512</v>
+        <v>1507537</v>
       </c>
       <c r="X59" s="11">
-        <v>1570817</v>
+        <v>1459994</v>
       </c>
       <c r="Y59" s="11">
-        <v>1507537</v>
+        <v>1764309</v>
       </c>
       <c r="Z59" s="11">
-        <v>1459994</v>
+        <v>3045169</v>
       </c>
       <c r="AA59" s="11">
-        <v>1764309</v>
+        <v>2012332</v>
       </c>
       <c r="AB59" s="11">
-        <v>3045169</v>
+        <v>1903797</v>
       </c>
       <c r="AC59" s="11">
-        <v>2012332</v>
+        <v>2440715</v>
       </c>
       <c r="AD59" s="11">
-        <v>1903797</v>
+        <v>2164494</v>
       </c>
       <c r="AE59" s="11">
-        <v>2440715</v>
+        <v>2658270</v>
       </c>
       <c r="AF59" s="11">
-        <v>2164494</v>
+        <v>2902106</v>
       </c>
       <c r="AG59" s="11">
-        <v>2658270</v>
+        <v>2551802</v>
       </c>
       <c r="AH59" s="11">
-        <v>2902106</v>
+        <v>3165966</v>
       </c>
       <c r="AI59" s="11">
-        <v>2551802</v>
+        <v>3472949</v>
       </c>
       <c r="AJ59" s="11">
-        <v>3165966</v>
+        <v>4038529</v>
       </c>
       <c r="AK59" s="11">
-        <v>3472949</v>
+        <v>4045732</v>
       </c>
       <c r="AL59" s="11">
-        <v>4038529</v>
+        <v>3371245</v>
       </c>
       <c r="AM59" s="11">
-        <v>4045732</v>
+        <v>3665803</v>
       </c>
       <c r="AN59" s="11">
-        <v>3371245</v>
+        <v>3681369</v>
       </c>
       <c r="AO59" s="11">
-        <v>3665803</v>
+        <v>3562416</v>
       </c>
       <c r="AP59" s="11">
-        <v>3681369</v>
+        <v>3718057</v>
       </c>
       <c r="AQ59" s="11">
-        <v>3562416</v>
+        <v>3887950</v>
       </c>
       <c r="AR59" s="11">
-        <v>3718057</v>
+        <v>5481757</v>
       </c>
       <c r="AS59" s="11">
-        <v>3887950</v>
+        <v>6157115</v>
       </c>
       <c r="AT59" s="11">
-        <v>5481757</v>
+        <v>13780000</v>
       </c>
       <c r="AU59" s="11">
-        <v>6157115</v>
+        <v>4300321</v>
       </c>
       <c r="AV59" s="11">
-        <v>13780000</v>
+        <v>4303190</v>
       </c>
       <c r="AW59" s="11">
-        <v>4300321</v>
+        <v>6254158</v>
       </c>
       <c r="AX59" s="11">
-        <v>4303190</v>
+        <v>7711297</v>
       </c>
       <c r="AY59" s="11">
-        <v>6254158</v>
+        <v>6101079</v>
       </c>
       <c r="AZ59" s="11">
-        <v>7711297</v>
+        <v>5457394</v>
       </c>
       <c r="BA59" s="11">
-        <v>6101079</v>
+        <v>4401250</v>
       </c>
       <c r="BB59" s="11">
-        <v>5457394</v>
+        <v>5094482</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7016,154 +7016,154 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>2414815</v>
+        <v>7139500</v>
       </c>
       <c r="F60" s="13">
-        <v>16556431</v>
+        <v>4688030</v>
       </c>
       <c r="G60" s="13">
-        <v>7139500</v>
+        <v>3599282</v>
       </c>
       <c r="H60" s="13">
-        <v>4688030</v>
+        <v>6025506</v>
       </c>
       <c r="I60" s="13">
-        <v>3599282</v>
+        <v>3977993</v>
       </c>
       <c r="J60" s="13">
-        <v>6025506</v>
+        <v>6275679</v>
       </c>
       <c r="K60" s="13">
-        <v>3977993</v>
+        <v>9702737</v>
       </c>
       <c r="L60" s="13">
-        <v>6275679</v>
+        <v>31362428</v>
       </c>
       <c r="M60" s="13">
-        <v>9702737</v>
+        <v>16448546</v>
       </c>
       <c r="N60" s="13">
-        <v>31362428</v>
+        <v>7266078</v>
       </c>
       <c r="O60" s="13">
-        <v>16448546</v>
+        <v>8592109</v>
       </c>
       <c r="P60" s="13">
-        <v>7266078</v>
+        <v>1827554</v>
       </c>
       <c r="Q60" s="13">
-        <v>8592109</v>
+        <v>8992691</v>
       </c>
       <c r="R60" s="13">
-        <v>1827554</v>
+        <v>13532870</v>
       </c>
       <c r="S60" s="13">
-        <v>8992691</v>
+        <v>8339270</v>
       </c>
       <c r="T60" s="13">
-        <v>13532870</v>
+        <v>24403289</v>
       </c>
       <c r="U60" s="13">
-        <v>8339270</v>
+        <v>2061418</v>
       </c>
       <c r="V60" s="13">
-        <v>24403289</v>
+        <v>22015126</v>
       </c>
       <c r="W60" s="13">
-        <v>2061418</v>
+        <v>6865046</v>
       </c>
       <c r="X60" s="13">
-        <v>22015126</v>
+        <v>7339511</v>
       </c>
       <c r="Y60" s="13">
-        <v>6865046</v>
+        <v>5180389</v>
       </c>
       <c r="Z60" s="13">
-        <v>7339511</v>
+        <v>7067237</v>
       </c>
       <c r="AA60" s="13">
-        <v>5180389</v>
+        <v>6956833</v>
       </c>
       <c r="AB60" s="13">
-        <v>7067237</v>
+        <v>5099658</v>
       </c>
       <c r="AC60" s="13">
-        <v>6956833</v>
+        <v>2093947</v>
       </c>
       <c r="AD60" s="13">
-        <v>5099658</v>
+        <v>8699660</v>
       </c>
       <c r="AE60" s="13">
-        <v>2093947</v>
+        <v>44156897</v>
       </c>
       <c r="AF60" s="13">
-        <v>8699660</v>
+        <v>8998062</v>
       </c>
       <c r="AG60" s="13">
-        <v>44156897</v>
+        <v>2350267</v>
       </c>
       <c r="AH60" s="13">
-        <v>8998062</v>
+        <v>47771429</v>
       </c>
       <c r="AI60" s="13">
-        <v>2350267</v>
+        <v>9148060</v>
       </c>
       <c r="AJ60" s="13">
-        <v>47771429</v>
+        <v>5204434</v>
       </c>
       <c r="AK60" s="13">
-        <v>9148060</v>
+        <v>14527579</v>
       </c>
       <c r="AL60" s="13">
-        <v>5204434</v>
+        <v>5199450</v>
       </c>
       <c r="AM60" s="13">
-        <v>14527579</v>
+        <v>5493698</v>
       </c>
       <c r="AN60" s="13">
-        <v>5199450</v>
+        <v>1917155</v>
       </c>
       <c r="AO60" s="13">
-        <v>5493698</v>
+        <v>3316604</v>
       </c>
       <c r="AP60" s="13">
-        <v>1917155</v>
+        <v>4780950</v>
       </c>
       <c r="AQ60" s="13">
-        <v>3316604</v>
+        <v>4880963</v>
       </c>
       <c r="AR60" s="13">
-        <v>4780950</v>
+        <v>2792985</v>
       </c>
       <c r="AS60" s="13">
-        <v>4880963</v>
+        <v>2979876</v>
       </c>
       <c r="AT60" s="13">
-        <v>2792985</v>
+        <v>39344444</v>
       </c>
       <c r="AU60" s="13">
-        <v>2979876</v>
+        <v>22838375</v>
       </c>
       <c r="AV60" s="13">
-        <v>39344444</v>
+        <v>24959329</v>
       </c>
       <c r="AW60" s="13">
-        <v>22838375</v>
+        <v>5987018</v>
       </c>
       <c r="AX60" s="13">
-        <v>24959329</v>
+        <v>8898072</v>
       </c>
       <c r="AY60" s="13">
-        <v>5987018</v>
+        <v>83096065</v>
       </c>
       <c r="AZ60" s="13">
-        <v>8898072</v>
+        <v>3045575</v>
       </c>
       <c r="BA60" s="13">
-        <v>83096065</v>
+        <v>5453484</v>
       </c>
       <c r="BB60" s="13">
-        <v>3045575</v>
+        <v>3402767</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7175,154 +7175,154 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>274658</v>
+        <v>247850</v>
       </c>
       <c r="F61" s="11">
-        <v>224602</v>
+        <v>245402</v>
       </c>
       <c r="G61" s="11">
-        <v>247850</v>
+        <v>277969</v>
       </c>
       <c r="H61" s="11">
-        <v>245402</v>
+        <v>0</v>
       </c>
       <c r="I61" s="11">
-        <v>277969</v>
+        <v>347303</v>
       </c>
       <c r="J61" s="11">
-        <v>0</v>
+        <v>383890</v>
       </c>
       <c r="K61" s="11">
-        <v>347303</v>
+        <v>340430</v>
       </c>
       <c r="L61" s="11">
-        <v>383890</v>
+        <v>381531</v>
       </c>
       <c r="M61" s="11">
-        <v>340430</v>
+        <v>394902</v>
       </c>
       <c r="N61" s="11">
-        <v>381531</v>
+        <v>314097</v>
       </c>
       <c r="O61" s="11">
-        <v>394902</v>
+        <v>374795</v>
       </c>
       <c r="P61" s="11">
-        <v>314097</v>
+        <v>423713</v>
       </c>
       <c r="Q61" s="11">
-        <v>374795</v>
+        <v>460519</v>
       </c>
       <c r="R61" s="11">
-        <v>423713</v>
+        <v>516548</v>
       </c>
       <c r="S61" s="11">
-        <v>460519</v>
+        <v>630763</v>
       </c>
       <c r="T61" s="11">
-        <v>516548</v>
+        <v>680437</v>
       </c>
       <c r="U61" s="11">
-        <v>630763</v>
+        <v>309056</v>
       </c>
       <c r="V61" s="11">
-        <v>680437</v>
+        <v>439325</v>
       </c>
       <c r="W61" s="11">
-        <v>309056</v>
+        <v>579424</v>
       </c>
       <c r="X61" s="11">
-        <v>439325</v>
+        <v>526868</v>
       </c>
       <c r="Y61" s="11">
-        <v>579424</v>
+        <v>739486</v>
       </c>
       <c r="Z61" s="11">
-        <v>526868</v>
+        <v>969978</v>
       </c>
       <c r="AA61" s="11">
-        <v>739486</v>
+        <v>1311458</v>
       </c>
       <c r="AB61" s="11">
-        <v>969978</v>
+        <v>866119</v>
       </c>
       <c r="AC61" s="11">
-        <v>1311458</v>
+        <v>2472602</v>
       </c>
       <c r="AD61" s="11">
-        <v>866119</v>
+        <v>1140201</v>
       </c>
       <c r="AE61" s="11">
-        <v>2472602</v>
+        <v>1012332</v>
       </c>
       <c r="AF61" s="11">
-        <v>1140201</v>
+        <v>718318</v>
       </c>
       <c r="AG61" s="11">
-        <v>1012332</v>
+        <v>782359</v>
       </c>
       <c r="AH61" s="11">
-        <v>718318</v>
+        <v>13736</v>
       </c>
       <c r="AI61" s="11">
-        <v>782359</v>
+        <v>10878</v>
       </c>
       <c r="AJ61" s="11">
-        <v>13736</v>
+        <v>17084</v>
       </c>
       <c r="AK61" s="11">
-        <v>10878</v>
+        <v>7291</v>
       </c>
       <c r="AL61" s="11">
-        <v>17084</v>
+        <v>12041</v>
       </c>
       <c r="AM61" s="11">
-        <v>7291</v>
+        <v>8039</v>
       </c>
       <c r="AN61" s="11">
-        <v>12041</v>
+        <v>15177</v>
       </c>
       <c r="AO61" s="11">
-        <v>8039</v>
+        <v>7579</v>
       </c>
       <c r="AP61" s="11">
-        <v>15177</v>
+        <v>10850</v>
       </c>
       <c r="AQ61" s="11">
-        <v>7579</v>
+        <v>34678</v>
       </c>
       <c r="AR61" s="11">
-        <v>10850</v>
+        <v>16252</v>
       </c>
       <c r="AS61" s="11">
-        <v>34678</v>
+        <v>12605</v>
       </c>
       <c r="AT61" s="11">
-        <v>16252</v>
+        <v>9859</v>
       </c>
       <c r="AU61" s="11">
-        <v>12605</v>
+        <v>23645</v>
       </c>
       <c r="AV61" s="11">
-        <v>9859</v>
+        <v>8063</v>
       </c>
       <c r="AW61" s="11">
-        <v>23645</v>
+        <v>155518</v>
       </c>
       <c r="AX61" s="11">
-        <v>8063</v>
+        <v>17118</v>
       </c>
       <c r="AY61" s="11">
-        <v>155518</v>
+        <v>269387</v>
       </c>
       <c r="AZ61" s="11">
-        <v>17118</v>
+        <v>22374</v>
       </c>
       <c r="BA61" s="11">
-        <v>269387</v>
+        <v>65745</v>
       </c>
       <c r="BB61" s="11">
-        <v>22374</v>
+        <v>234295</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/detmad/product/monthly.xlsx
+++ b/database/industries/darou/detmad/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\detmad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A334A5C-B98F-447B-8ECA-B5C73DCF3773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA17721-F4B2-4D1D-AABC-9D61D91B3F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دتماد-تولیدمواداولیه‌داروپخش‌</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>غیر نارکوتیکها</t>
@@ -733,12 +733,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -793,7 +793,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -962,7 +962,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1131,7 +1131,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1343,7 +1343,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1409,157 +1409,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>89343</v>
+        <v>127350</v>
       </c>
       <c r="F11" s="11">
-        <v>151638</v>
+        <v>38924</v>
       </c>
       <c r="G11" s="11">
-        <v>127350</v>
+        <v>120481</v>
       </c>
       <c r="H11" s="11">
-        <v>38924</v>
+        <v>44118</v>
       </c>
       <c r="I11" s="11">
-        <v>120481</v>
+        <v>137991</v>
       </c>
       <c r="J11" s="11">
-        <v>44118</v>
+        <v>201230</v>
       </c>
       <c r="K11" s="11">
-        <v>137991</v>
+        <v>251673</v>
       </c>
       <c r="L11" s="11">
-        <v>201230</v>
+        <v>164878</v>
       </c>
       <c r="M11" s="11">
-        <v>251673</v>
+        <v>63018</v>
       </c>
       <c r="N11" s="11">
-        <v>164878</v>
+        <v>48573</v>
       </c>
       <c r="O11" s="11">
-        <v>63018</v>
+        <v>287807</v>
       </c>
       <c r="P11" s="11">
-        <v>48573</v>
+        <v>196431</v>
       </c>
       <c r="Q11" s="11">
-        <v>287807</v>
+        <v>189240</v>
       </c>
       <c r="R11" s="11">
-        <v>196431</v>
+        <v>116686</v>
       </c>
       <c r="S11" s="11">
-        <v>189240</v>
+        <v>30775</v>
       </c>
       <c r="T11" s="11">
-        <v>116686</v>
+        <v>78534</v>
       </c>
       <c r="U11" s="11">
-        <v>30775</v>
+        <v>95562</v>
       </c>
       <c r="V11" s="11">
-        <v>78534</v>
+        <v>84110</v>
       </c>
       <c r="W11" s="11">
-        <v>95562</v>
+        <v>123513</v>
       </c>
       <c r="X11" s="11">
-        <v>84110</v>
+        <v>91487</v>
       </c>
       <c r="Y11" s="11">
-        <v>123513</v>
+        <v>140371</v>
       </c>
       <c r="Z11" s="11">
-        <v>91487</v>
+        <v>230664</v>
       </c>
       <c r="AA11" s="11">
-        <v>140371</v>
+        <v>210132</v>
       </c>
       <c r="AB11" s="11">
-        <v>230664</v>
+        <v>271037</v>
       </c>
       <c r="AC11" s="11">
-        <v>210132</v>
+        <v>170445</v>
       </c>
       <c r="AD11" s="11">
-        <v>271037</v>
+        <v>189858</v>
       </c>
       <c r="AE11" s="11">
-        <v>170445</v>
+        <v>150000</v>
       </c>
       <c r="AF11" s="11">
-        <v>189858</v>
+        <v>114590</v>
       </c>
       <c r="AG11" s="11">
-        <v>150000</v>
+        <v>145360</v>
       </c>
       <c r="AH11" s="11">
-        <v>114590</v>
+        <v>181285</v>
       </c>
       <c r="AI11" s="11">
-        <v>145360</v>
+        <v>123612</v>
       </c>
       <c r="AJ11" s="11">
-        <v>181285</v>
+        <v>100950</v>
       </c>
       <c r="AK11" s="11">
-        <v>123612</v>
+        <v>135051</v>
       </c>
       <c r="AL11" s="11">
-        <v>100950</v>
+        <v>109142</v>
       </c>
       <c r="AM11" s="11">
-        <v>135051</v>
+        <v>96583</v>
       </c>
       <c r="AN11" s="11">
-        <v>109142</v>
+        <v>101625</v>
       </c>
       <c r="AO11" s="11">
-        <v>96583</v>
+        <v>59813</v>
       </c>
       <c r="AP11" s="11">
-        <v>101625</v>
+        <v>103650</v>
       </c>
       <c r="AQ11" s="11">
-        <v>59813</v>
+        <v>49677</v>
       </c>
       <c r="AR11" s="11">
-        <v>103650</v>
+        <v>37998</v>
       </c>
       <c r="AS11" s="11">
-        <v>49677</v>
+        <v>215582</v>
       </c>
       <c r="AT11" s="11">
-        <v>37998</v>
+        <v>111820</v>
       </c>
       <c r="AU11" s="11">
-        <v>215582</v>
+        <v>63481</v>
       </c>
       <c r="AV11" s="11">
-        <v>111820</v>
+        <v>90970</v>
       </c>
       <c r="AW11" s="11">
-        <v>63481</v>
+        <v>185257</v>
       </c>
       <c r="AX11" s="11">
-        <v>90970</v>
+        <v>139305</v>
       </c>
       <c r="AY11" s="11">
-        <v>185257</v>
+        <v>121715</v>
       </c>
       <c r="AZ11" s="11">
-        <v>139305</v>
+        <v>136466</v>
       </c>
       <c r="BA11" s="11">
-        <v>121715</v>
+        <v>154001</v>
       </c>
       <c r="BB11" s="11">
-        <v>136466</v>
+        <v>267623</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1568,157 +1568,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>16983</v>
+        <v>49746</v>
       </c>
       <c r="F12" s="13">
-        <v>4652</v>
+        <v>12675</v>
       </c>
       <c r="G12" s="13">
-        <v>49746</v>
+        <v>16359</v>
       </c>
       <c r="H12" s="13">
-        <v>12675</v>
+        <v>3099</v>
       </c>
       <c r="I12" s="13">
-        <v>16359</v>
+        <v>15954</v>
       </c>
       <c r="J12" s="13">
-        <v>3099</v>
+        <v>16676</v>
       </c>
       <c r="K12" s="13">
-        <v>15954</v>
+        <v>5257</v>
       </c>
       <c r="L12" s="13">
-        <v>16676</v>
+        <v>8222</v>
       </c>
       <c r="M12" s="13">
-        <v>5257</v>
+        <v>9306</v>
       </c>
       <c r="N12" s="13">
-        <v>8222</v>
+        <v>32936</v>
       </c>
       <c r="O12" s="13">
-        <v>9306</v>
+        <v>17216</v>
       </c>
       <c r="P12" s="13">
-        <v>32936</v>
+        <v>39361</v>
       </c>
       <c r="Q12" s="13">
-        <v>17216</v>
+        <v>13785</v>
       </c>
       <c r="R12" s="13">
-        <v>39361</v>
+        <v>28200</v>
       </c>
       <c r="S12" s="13">
-        <v>13785</v>
+        <v>1796</v>
       </c>
       <c r="T12" s="13">
-        <v>28200</v>
+        <v>9394</v>
       </c>
       <c r="U12" s="13">
-        <v>1796</v>
+        <v>53596</v>
       </c>
       <c r="V12" s="13">
-        <v>9394</v>
+        <v>5876</v>
       </c>
       <c r="W12" s="13">
-        <v>53596</v>
+        <v>25246</v>
       </c>
       <c r="X12" s="13">
-        <v>5876</v>
+        <v>38307</v>
       </c>
       <c r="Y12" s="13">
-        <v>25246</v>
+        <v>55919</v>
       </c>
       <c r="Z12" s="13">
-        <v>38307</v>
+        <v>50470</v>
       </c>
       <c r="AA12" s="13">
-        <v>55919</v>
+        <v>56730</v>
       </c>
       <c r="AB12" s="13">
-        <v>50470</v>
+        <v>49390</v>
       </c>
       <c r="AC12" s="13">
-        <v>56730</v>
+        <v>74486</v>
       </c>
       <c r="AD12" s="13">
-        <v>49390</v>
+        <v>22088</v>
       </c>
       <c r="AE12" s="13">
-        <v>74486</v>
+        <v>72070</v>
       </c>
       <c r="AF12" s="13">
-        <v>22088</v>
+        <v>22157</v>
       </c>
       <c r="AG12" s="13">
-        <v>72070</v>
+        <v>11770</v>
       </c>
       <c r="AH12" s="13">
-        <v>22157</v>
+        <v>22480</v>
       </c>
       <c r="AI12" s="13">
-        <v>11770</v>
+        <v>14196</v>
       </c>
       <c r="AJ12" s="13">
-        <v>22480</v>
+        <v>8416</v>
       </c>
       <c r="AK12" s="13">
-        <v>14196</v>
+        <v>68992</v>
       </c>
       <c r="AL12" s="13">
-        <v>8416</v>
+        <v>34050</v>
       </c>
       <c r="AM12" s="13">
-        <v>68992</v>
+        <v>87105</v>
       </c>
       <c r="AN12" s="13">
-        <v>34050</v>
+        <v>20049</v>
       </c>
       <c r="AO12" s="13">
-        <v>87105</v>
+        <v>20894</v>
       </c>
       <c r="AP12" s="13">
-        <v>20049</v>
+        <v>35990</v>
       </c>
       <c r="AQ12" s="13">
-        <v>20894</v>
+        <v>60275</v>
       </c>
       <c r="AR12" s="13">
-        <v>35990</v>
+        <v>54293</v>
       </c>
       <c r="AS12" s="13">
-        <v>60275</v>
+        <v>19934</v>
       </c>
       <c r="AT12" s="13">
-        <v>54293</v>
+        <v>1876</v>
       </c>
       <c r="AU12" s="13">
-        <v>19934</v>
+        <v>1223</v>
       </c>
       <c r="AV12" s="13">
-        <v>1876</v>
+        <v>1001</v>
       </c>
       <c r="AW12" s="13">
-        <v>1223</v>
+        <v>12642</v>
       </c>
       <c r="AX12" s="13">
-        <v>1001</v>
+        <v>3493</v>
       </c>
       <c r="AY12" s="13">
-        <v>12642</v>
+        <v>5494</v>
       </c>
       <c r="AZ12" s="13">
-        <v>3493</v>
+        <v>63500</v>
       </c>
       <c r="BA12" s="13">
-        <v>5494</v>
+        <v>51465</v>
       </c>
       <c r="BB12" s="13">
-        <v>63500</v>
+        <v>38920</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1727,157 +1727,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>72607</v>
+        <v>84489</v>
       </c>
       <c r="F13" s="11">
-        <v>72476</v>
+        <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>84489</v>
+        <v>64249</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
+        <v>28088</v>
       </c>
       <c r="I13" s="11">
-        <v>64249</v>
+        <v>120375</v>
       </c>
       <c r="J13" s="11">
-        <v>28088</v>
+        <v>68297</v>
       </c>
       <c r="K13" s="11">
-        <v>120375</v>
+        <v>106272</v>
       </c>
       <c r="L13" s="11">
-        <v>68297</v>
+        <v>132460</v>
       </c>
       <c r="M13" s="11">
-        <v>106272</v>
+        <v>104365</v>
       </c>
       <c r="N13" s="11">
-        <v>132460</v>
+        <v>100284</v>
       </c>
       <c r="O13" s="11">
-        <v>104365</v>
+        <v>64277</v>
       </c>
       <c r="P13" s="11">
-        <v>100284</v>
+        <v>68346</v>
       </c>
       <c r="Q13" s="11">
-        <v>64277</v>
+        <v>40442</v>
       </c>
       <c r="R13" s="11">
-        <v>68346</v>
+        <v>75991</v>
       </c>
       <c r="S13" s="11">
-        <v>40442</v>
+        <v>28201</v>
       </c>
       <c r="T13" s="11">
-        <v>75991</v>
+        <v>44168</v>
       </c>
       <c r="U13" s="11">
-        <v>28201</v>
+        <v>52069</v>
       </c>
       <c r="V13" s="11">
-        <v>44168</v>
+        <v>72867</v>
       </c>
       <c r="W13" s="11">
-        <v>52069</v>
+        <v>112988</v>
       </c>
       <c r="X13" s="11">
-        <v>72867</v>
+        <v>72605</v>
       </c>
       <c r="Y13" s="11">
-        <v>112988</v>
+        <v>110646</v>
       </c>
       <c r="Z13" s="11">
-        <v>72605</v>
+        <v>86373</v>
       </c>
       <c r="AA13" s="11">
-        <v>110646</v>
+        <v>42868</v>
       </c>
       <c r="AB13" s="11">
-        <v>86373</v>
+        <v>137714</v>
       </c>
       <c r="AC13" s="11">
-        <v>42868</v>
+        <v>119106</v>
       </c>
       <c r="AD13" s="11">
-        <v>137714</v>
+        <v>31347</v>
       </c>
       <c r="AE13" s="11">
-        <v>119106</v>
+        <v>117496</v>
       </c>
       <c r="AF13" s="11">
-        <v>31347</v>
+        <v>169510</v>
       </c>
       <c r="AG13" s="11">
-        <v>117496</v>
+        <v>9854265</v>
       </c>
       <c r="AH13" s="11">
-        <v>169510</v>
+        <v>858095</v>
       </c>
       <c r="AI13" s="11">
-        <v>9854265</v>
+        <v>20379961</v>
       </c>
       <c r="AJ13" s="11">
-        <v>858095</v>
+        <v>16271362</v>
       </c>
       <c r="AK13" s="11">
-        <v>20379961</v>
+        <v>5004658</v>
       </c>
       <c r="AL13" s="11">
-        <v>16271362</v>
+        <v>1520981</v>
       </c>
       <c r="AM13" s="11">
-        <v>5004658</v>
+        <v>4316415</v>
       </c>
       <c r="AN13" s="11">
-        <v>1520981</v>
+        <v>8593297</v>
       </c>
       <c r="AO13" s="11">
-        <v>4316415</v>
+        <v>9411242</v>
       </c>
       <c r="AP13" s="11">
-        <v>8593297</v>
+        <v>5013129</v>
       </c>
       <c r="AQ13" s="11">
-        <v>9411242</v>
+        <v>8017104</v>
       </c>
       <c r="AR13" s="11">
-        <v>5013129</v>
+        <v>160429</v>
       </c>
       <c r="AS13" s="11">
-        <v>8017104</v>
+        <v>386746</v>
       </c>
       <c r="AT13" s="11">
-        <v>160429</v>
+        <v>482425</v>
       </c>
       <c r="AU13" s="11">
-        <v>386746</v>
+        <v>705221</v>
       </c>
       <c r="AV13" s="11">
-        <v>482425</v>
+        <v>537704</v>
       </c>
       <c r="AW13" s="11">
-        <v>705221</v>
+        <v>2621154</v>
       </c>
       <c r="AX13" s="11">
-        <v>537704</v>
+        <v>621573</v>
       </c>
       <c r="AY13" s="11">
-        <v>2621154</v>
+        <v>319592</v>
       </c>
       <c r="AZ13" s="11">
-        <v>621573</v>
+        <v>695746</v>
       </c>
       <c r="BA13" s="11">
-        <v>319592</v>
+        <v>663682</v>
       </c>
       <c r="BB13" s="11">
-        <v>695746</v>
+        <v>321204</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>60</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="BA14" s="15"/>
       <c r="BB14" s="15"/>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>61</v>
       </c>
@@ -1994,11 +1994,11 @@
       <c r="V15" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="W15" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="X15" s="17" t="s">
-        <v>62</v>
+      <c r="W15" s="17">
+        <v>0</v>
+      </c>
+      <c r="X15" s="17">
+        <v>0</v>
       </c>
       <c r="Y15" s="17">
         <v>0</v>
@@ -2091,164 +2091,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19">
-        <v>178933</v>
+        <v>261585</v>
       </c>
       <c r="F16" s="19">
-        <v>228766</v>
+        <v>51599</v>
       </c>
       <c r="G16" s="19">
-        <v>261585</v>
+        <v>201089</v>
       </c>
       <c r="H16" s="19">
-        <v>51599</v>
+        <v>75305</v>
       </c>
       <c r="I16" s="19">
-        <v>201089</v>
+        <v>274320</v>
       </c>
       <c r="J16" s="19">
-        <v>75305</v>
+        <v>286203</v>
       </c>
       <c r="K16" s="19">
-        <v>274320</v>
+        <v>363202</v>
       </c>
       <c r="L16" s="19">
-        <v>286203</v>
+        <v>305560</v>
       </c>
       <c r="M16" s="19">
-        <v>363202</v>
+        <v>176689</v>
       </c>
       <c r="N16" s="19">
-        <v>305560</v>
+        <v>181793</v>
       </c>
       <c r="O16" s="19">
-        <v>176689</v>
+        <v>369300</v>
       </c>
       <c r="P16" s="19">
-        <v>181793</v>
+        <v>304138</v>
       </c>
       <c r="Q16" s="19">
-        <v>369300</v>
+        <v>243467</v>
       </c>
       <c r="R16" s="19">
-        <v>304138</v>
+        <v>220877</v>
       </c>
       <c r="S16" s="19">
-        <v>243467</v>
+        <v>60772</v>
       </c>
       <c r="T16" s="19">
-        <v>220877</v>
+        <v>132097</v>
       </c>
       <c r="U16" s="19">
-        <v>60772</v>
+        <v>201227</v>
       </c>
       <c r="V16" s="19">
-        <v>132097</v>
+        <v>162853</v>
       </c>
       <c r="W16" s="19">
-        <v>201227</v>
+        <v>261747</v>
       </c>
       <c r="X16" s="19">
-        <v>162853</v>
+        <v>202399</v>
       </c>
       <c r="Y16" s="19">
-        <v>261747</v>
+        <v>306936</v>
       </c>
       <c r="Z16" s="19">
-        <v>202399</v>
+        <v>367507</v>
       </c>
       <c r="AA16" s="19">
-        <v>306936</v>
+        <v>309730</v>
       </c>
       <c r="AB16" s="19">
-        <v>367507</v>
+        <v>458141</v>
       </c>
       <c r="AC16" s="19">
-        <v>309730</v>
+        <v>364037</v>
       </c>
       <c r="AD16" s="19">
-        <v>458141</v>
+        <v>243293</v>
       </c>
       <c r="AE16" s="19">
-        <v>364037</v>
+        <v>339566</v>
       </c>
       <c r="AF16" s="19">
-        <v>243293</v>
+        <v>306257</v>
       </c>
       <c r="AG16" s="19">
-        <v>339566</v>
+        <v>10011395</v>
       </c>
       <c r="AH16" s="19">
-        <v>306257</v>
+        <v>1061860</v>
       </c>
       <c r="AI16" s="19">
-        <v>10011395</v>
+        <v>20517769</v>
       </c>
       <c r="AJ16" s="19">
-        <v>1061860</v>
+        <v>16380728</v>
       </c>
       <c r="AK16" s="19">
-        <v>20517769</v>
+        <v>5208701</v>
       </c>
       <c r="AL16" s="19">
-        <v>16380728</v>
+        <v>1664173</v>
       </c>
       <c r="AM16" s="19">
-        <v>5208701</v>
+        <v>4500103</v>
       </c>
       <c r="AN16" s="19">
-        <v>1664173</v>
+        <v>8714971</v>
       </c>
       <c r="AO16" s="19">
-        <v>4500103</v>
+        <v>9491949</v>
       </c>
       <c r="AP16" s="19">
-        <v>8714971</v>
+        <v>5152769</v>
       </c>
       <c r="AQ16" s="19">
-        <v>9491949</v>
+        <v>8127056</v>
       </c>
       <c r="AR16" s="19">
-        <v>5152769</v>
+        <v>252720</v>
       </c>
       <c r="AS16" s="19">
-        <v>8127056</v>
+        <v>622262</v>
       </c>
       <c r="AT16" s="19">
-        <v>252720</v>
+        <v>596121</v>
       </c>
       <c r="AU16" s="19">
-        <v>622262</v>
+        <v>769925</v>
       </c>
       <c r="AV16" s="19">
-        <v>596121</v>
+        <v>629675</v>
       </c>
       <c r="AW16" s="19">
-        <v>769925</v>
+        <v>2819053</v>
       </c>
       <c r="AX16" s="19">
-        <v>629675</v>
+        <v>764371</v>
       </c>
       <c r="AY16" s="19">
-        <v>2819053</v>
+        <v>446801</v>
       </c>
       <c r="AZ16" s="19">
-        <v>764371</v>
+        <v>895712</v>
       </c>
       <c r="BA16" s="19">
-        <v>446801</v>
+        <v>869148</v>
       </c>
       <c r="BB16" s="19">
-        <v>895712</v>
+        <v>627747</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2303,7 +2303,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2358,7 +2358,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2413,7 +2413,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>64</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2625,7 +2625,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>64</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>55</v>
       </c>
@@ -2691,157 +2691,157 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>72972</v>
+        <v>113890</v>
       </c>
       <c r="F23" s="11">
-        <v>169219</v>
+        <v>42498</v>
       </c>
       <c r="G23" s="11">
-        <v>113890</v>
+        <v>40772</v>
       </c>
       <c r="H23" s="11">
-        <v>42498</v>
+        <v>83972</v>
       </c>
       <c r="I23" s="11">
-        <v>40772</v>
+        <v>10103</v>
       </c>
       <c r="J23" s="11">
-        <v>83972</v>
+        <v>158508</v>
       </c>
       <c r="K23" s="11">
-        <v>10103</v>
+        <v>150459</v>
       </c>
       <c r="L23" s="11">
-        <v>158508</v>
+        <v>199438</v>
       </c>
       <c r="M23" s="11">
-        <v>150459</v>
+        <v>146522</v>
       </c>
       <c r="N23" s="11">
-        <v>199438</v>
+        <v>109158</v>
       </c>
       <c r="O23" s="11">
-        <v>146522</v>
+        <v>152981</v>
       </c>
       <c r="P23" s="11">
-        <v>109158</v>
+        <v>121378</v>
       </c>
       <c r="Q23" s="11">
-        <v>152981</v>
+        <v>148215</v>
       </c>
       <c r="R23" s="11">
-        <v>121378</v>
+        <v>84794</v>
       </c>
       <c r="S23" s="11">
-        <v>148215</v>
+        <v>60121</v>
       </c>
       <c r="T23" s="11">
-        <v>84794</v>
+        <v>80623</v>
       </c>
       <c r="U23" s="11">
-        <v>60121</v>
+        <v>180448</v>
       </c>
       <c r="V23" s="11">
-        <v>80623</v>
+        <v>165852</v>
       </c>
       <c r="W23" s="11">
-        <v>180448</v>
+        <v>136174</v>
       </c>
       <c r="X23" s="11">
-        <v>165852</v>
+        <v>103920</v>
       </c>
       <c r="Y23" s="11">
-        <v>136174</v>
+        <v>230375</v>
       </c>
       <c r="Z23" s="11">
-        <v>103920</v>
+        <v>222468</v>
       </c>
       <c r="AA23" s="11">
-        <v>230375</v>
+        <v>177026</v>
       </c>
       <c r="AB23" s="11">
-        <v>222468</v>
+        <v>256629</v>
       </c>
       <c r="AC23" s="11">
-        <v>177026</v>
+        <v>161493</v>
       </c>
       <c r="AD23" s="11">
-        <v>256629</v>
+        <v>154749</v>
       </c>
       <c r="AE23" s="11">
-        <v>161493</v>
+        <v>46060</v>
       </c>
       <c r="AF23" s="11">
-        <v>154749</v>
+        <v>135166</v>
       </c>
       <c r="AG23" s="11">
-        <v>46060</v>
+        <v>133340</v>
       </c>
       <c r="AH23" s="11">
-        <v>135166</v>
+        <v>145345</v>
       </c>
       <c r="AI23" s="11">
-        <v>133340</v>
+        <v>95075</v>
       </c>
       <c r="AJ23" s="11">
-        <v>145345</v>
+        <v>92618</v>
       </c>
       <c r="AK23" s="11">
-        <v>95075</v>
+        <v>216920</v>
       </c>
       <c r="AL23" s="11">
-        <v>92618</v>
+        <v>94316</v>
       </c>
       <c r="AM23" s="11">
-        <v>216920</v>
+        <v>150842</v>
       </c>
       <c r="AN23" s="11">
-        <v>94316</v>
+        <v>136620</v>
       </c>
       <c r="AO23" s="11">
-        <v>150842</v>
+        <v>192084</v>
       </c>
       <c r="AP23" s="11">
-        <v>136620</v>
+        <v>137065</v>
       </c>
       <c r="AQ23" s="11">
-        <v>192084</v>
+        <v>44006</v>
       </c>
       <c r="AR23" s="11">
-        <v>137065</v>
+        <v>4650</v>
       </c>
       <c r="AS23" s="11">
-        <v>44006</v>
+        <v>148165</v>
       </c>
       <c r="AT23" s="11">
-        <v>4650</v>
+        <v>129137</v>
       </c>
       <c r="AU23" s="11">
-        <v>148165</v>
+        <v>121464</v>
       </c>
       <c r="AV23" s="11">
-        <v>129137</v>
+        <v>102181</v>
       </c>
       <c r="AW23" s="11">
-        <v>121464</v>
+        <v>188942</v>
       </c>
       <c r="AX23" s="11">
-        <v>102181</v>
+        <v>137105</v>
       </c>
       <c r="AY23" s="11">
-        <v>188942</v>
+        <v>118316</v>
       </c>
       <c r="AZ23" s="11">
-        <v>137105</v>
+        <v>115017</v>
       </c>
       <c r="BA23" s="11">
-        <v>119711</v>
+        <v>182846</v>
       </c>
       <c r="BB23" s="11">
-        <v>115017</v>
+        <v>312240</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>57</v>
       </c>
@@ -2850,157 +2850,157 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>24301</v>
+        <v>16705</v>
       </c>
       <c r="F24" s="13">
-        <v>17319</v>
+        <v>14428</v>
       </c>
       <c r="G24" s="13">
-        <v>16705</v>
+        <v>17176</v>
       </c>
       <c r="H24" s="13">
-        <v>14428</v>
+        <v>11702</v>
       </c>
       <c r="I24" s="13">
-        <v>17176</v>
+        <v>10156</v>
       </c>
       <c r="J24" s="13">
-        <v>11702</v>
+        <v>2784</v>
       </c>
       <c r="K24" s="13">
-        <v>10156</v>
+        <v>9319</v>
       </c>
       <c r="L24" s="13">
-        <v>2784</v>
+        <v>17882</v>
       </c>
       <c r="M24" s="13">
-        <v>9319</v>
+        <v>11177</v>
       </c>
       <c r="N24" s="13">
-        <v>17882</v>
+        <v>28090</v>
       </c>
       <c r="O24" s="13">
-        <v>11177</v>
+        <v>21892</v>
       </c>
       <c r="P24" s="13">
-        <v>28090</v>
+        <v>21707</v>
       </c>
       <c r="Q24" s="13">
-        <v>21892</v>
+        <v>40873</v>
       </c>
       <c r="R24" s="13">
-        <v>21707</v>
+        <v>5351</v>
       </c>
       <c r="S24" s="13">
-        <v>40873</v>
+        <v>15647</v>
       </c>
       <c r="T24" s="13">
-        <v>5351</v>
+        <v>3496</v>
       </c>
       <c r="U24" s="13">
-        <v>15647</v>
+        <v>25169</v>
       </c>
       <c r="V24" s="13">
-        <v>3496</v>
+        <v>36191</v>
       </c>
       <c r="W24" s="13">
-        <v>25169</v>
+        <v>51411</v>
       </c>
       <c r="X24" s="13">
-        <v>36191</v>
+        <v>36587</v>
       </c>
       <c r="Y24" s="13">
-        <v>51411</v>
+        <v>29027</v>
       </c>
       <c r="Z24" s="13">
-        <v>36587</v>
+        <v>56784</v>
       </c>
       <c r="AA24" s="13">
-        <v>29027</v>
+        <v>49826</v>
       </c>
       <c r="AB24" s="13">
-        <v>56784</v>
+        <v>54122</v>
       </c>
       <c r="AC24" s="13">
-        <v>49826</v>
+        <v>4060</v>
       </c>
       <c r="AD24" s="13">
-        <v>54122</v>
+        <v>12385</v>
       </c>
       <c r="AE24" s="13">
-        <v>4060</v>
+        <v>16171</v>
       </c>
       <c r="AF24" s="13">
-        <v>12385</v>
+        <v>6510</v>
       </c>
       <c r="AG24" s="13">
-        <v>16171</v>
+        <v>30670</v>
       </c>
       <c r="AH24" s="13">
-        <v>6510</v>
+        <v>24898</v>
       </c>
       <c r="AI24" s="13">
-        <v>30670</v>
+        <v>38127</v>
       </c>
       <c r="AJ24" s="13">
-        <v>24898</v>
+        <v>50208</v>
       </c>
       <c r="AK24" s="13">
-        <v>38127</v>
+        <v>57598</v>
       </c>
       <c r="AL24" s="13">
-        <v>50208</v>
+        <v>51518</v>
       </c>
       <c r="AM24" s="13">
-        <v>57598</v>
+        <v>45470</v>
       </c>
       <c r="AN24" s="13">
-        <v>51518</v>
+        <v>33134</v>
       </c>
       <c r="AO24" s="13">
-        <v>45470</v>
+        <v>47019</v>
       </c>
       <c r="AP24" s="13">
-        <v>33134</v>
+        <v>43620</v>
       </c>
       <c r="AQ24" s="13">
-        <v>47019</v>
+        <v>43231</v>
       </c>
       <c r="AR24" s="13">
-        <v>43620</v>
+        <v>9000</v>
       </c>
       <c r="AS24" s="13">
-        <v>43231</v>
+        <v>16860</v>
       </c>
       <c r="AT24" s="13">
-        <v>9000</v>
+        <v>6319</v>
       </c>
       <c r="AU24" s="13">
-        <v>16860</v>
+        <v>15483</v>
       </c>
       <c r="AV24" s="13">
-        <v>6319</v>
+        <v>10478</v>
       </c>
       <c r="AW24" s="13">
-        <v>15483</v>
+        <v>1728</v>
       </c>
       <c r="AX24" s="13">
-        <v>10478</v>
+        <v>42041</v>
       </c>
       <c r="AY24" s="13">
-        <v>1728</v>
+        <v>20952</v>
       </c>
       <c r="AZ24" s="13">
-        <v>42041</v>
+        <v>64479</v>
       </c>
       <c r="BA24" s="13">
-        <v>20982</v>
+        <v>2861</v>
       </c>
       <c r="BB24" s="13">
-        <v>64479</v>
+        <v>36468</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>58</v>
       </c>
@@ -3009,157 +3009,157 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>72548</v>
+        <v>87722</v>
       </c>
       <c r="F25" s="11">
-        <v>174408</v>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
-        <v>87722</v>
+        <v>155596</v>
       </c>
       <c r="H25" s="11">
-        <v>0</v>
+        <v>42645</v>
       </c>
       <c r="I25" s="11">
-        <v>155596</v>
+        <v>101601</v>
       </c>
       <c r="J25" s="11">
-        <v>42645</v>
+        <v>81367</v>
       </c>
       <c r="K25" s="11">
-        <v>101601</v>
+        <v>127019</v>
       </c>
       <c r="L25" s="11">
-        <v>81367</v>
+        <v>128419</v>
       </c>
       <c r="M25" s="11">
-        <v>127019</v>
+        <v>94062</v>
       </c>
       <c r="N25" s="11">
-        <v>128419</v>
+        <v>83002</v>
       </c>
       <c r="O25" s="11">
-        <v>94062</v>
+        <v>72705</v>
       </c>
       <c r="P25" s="11">
-        <v>83002</v>
+        <v>48495</v>
       </c>
       <c r="Q25" s="11">
-        <v>72705</v>
+        <v>63642</v>
       </c>
       <c r="R25" s="11">
-        <v>48495</v>
+        <v>65890</v>
       </c>
       <c r="S25" s="11">
-        <v>63642</v>
+        <v>34641</v>
       </c>
       <c r="T25" s="11">
-        <v>65890</v>
+        <v>22667</v>
       </c>
       <c r="U25" s="11">
-        <v>34641</v>
+        <v>64160</v>
       </c>
       <c r="V25" s="11">
-        <v>22667</v>
+        <v>82295</v>
       </c>
       <c r="W25" s="11">
-        <v>64160</v>
+        <v>92444</v>
       </c>
       <c r="X25" s="11">
-        <v>82295</v>
+        <v>77876</v>
       </c>
       <c r="Y25" s="11">
-        <v>92444</v>
+        <v>96363</v>
       </c>
       <c r="Z25" s="11">
-        <v>77876</v>
+        <v>115244</v>
       </c>
       <c r="AA25" s="11">
-        <v>96363</v>
+        <v>44274</v>
       </c>
       <c r="AB25" s="11">
-        <v>115244</v>
+        <v>133423</v>
       </c>
       <c r="AC25" s="11">
-        <v>44274</v>
+        <v>53680</v>
       </c>
       <c r="AD25" s="11">
-        <v>133423</v>
+        <v>85160</v>
       </c>
       <c r="AE25" s="11">
-        <v>53680</v>
+        <v>96967</v>
       </c>
       <c r="AF25" s="11">
-        <v>85160</v>
+        <v>2073806</v>
       </c>
       <c r="AG25" s="11">
-        <v>96967</v>
+        <v>9552383</v>
       </c>
       <c r="AH25" s="11">
-        <v>2073806</v>
+        <v>3354560</v>
       </c>
       <c r="AI25" s="11">
-        <v>9552383</v>
+        <v>21136924</v>
       </c>
       <c r="AJ25" s="11">
-        <v>3354560</v>
+        <v>6065303</v>
       </c>
       <c r="AK25" s="11">
-        <v>21136924</v>
+        <v>19067846</v>
       </c>
       <c r="AL25" s="11">
-        <v>6065303</v>
+        <v>4969424</v>
       </c>
       <c r="AM25" s="11">
-        <v>19067846</v>
+        <v>11051669</v>
       </c>
       <c r="AN25" s="11">
-        <v>4969424</v>
+        <v>7034128</v>
       </c>
       <c r="AO25" s="11">
-        <v>11051669</v>
+        <v>1988191</v>
       </c>
       <c r="AP25" s="11">
-        <v>7034128</v>
+        <v>6448517</v>
       </c>
       <c r="AQ25" s="11">
-        <v>1988191</v>
+        <v>5929439</v>
       </c>
       <c r="AR25" s="11">
-        <v>6448517</v>
+        <v>6652127</v>
       </c>
       <c r="AS25" s="11">
-        <v>5929439</v>
+        <v>624279</v>
       </c>
       <c r="AT25" s="11">
-        <v>6652127</v>
+        <v>37566296</v>
       </c>
       <c r="AU25" s="11">
-        <v>624279</v>
+        <v>1268134</v>
       </c>
       <c r="AV25" s="11">
-        <v>37566296</v>
+        <v>10955154</v>
       </c>
       <c r="AW25" s="11">
-        <v>1268134</v>
+        <v>608155</v>
       </c>
       <c r="AX25" s="11">
-        <v>10955154</v>
+        <v>7266266</v>
       </c>
       <c r="AY25" s="11">
-        <v>608155</v>
+        <v>1677062</v>
       </c>
       <c r="AZ25" s="11">
-        <v>7266266</v>
+        <v>695760</v>
       </c>
       <c r="BA25" s="11">
-        <v>1677062</v>
+        <v>615256</v>
       </c>
       <c r="BB25" s="11">
-        <v>695760</v>
+        <v>321892</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>61</v>
       </c>
@@ -3276,11 +3276,11 @@
       <c r="V27" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="W27" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="X27" s="17" t="s">
-        <v>62</v>
+      <c r="W27" s="17">
+        <v>0</v>
+      </c>
+      <c r="X27" s="17">
+        <v>0</v>
       </c>
       <c r="Y27" s="17">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>65</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>55</v>
       </c>
@@ -3492,104 +3492,104 @@
       <c r="V29" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="W29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X29" s="11" t="s">
-        <v>62</v>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+      <c r="X29" s="11">
+        <v>0</v>
       </c>
       <c r="Y29" s="11">
         <v>0</v>
       </c>
       <c r="Z29" s="11">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AA29" s="11">
         <v>0</v>
       </c>
       <c r="AB29" s="11">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="AC29" s="11">
         <v>0</v>
       </c>
       <c r="AD29" s="11">
-        <v>299</v>
+        <v>4220</v>
       </c>
       <c r="AE29" s="11">
         <v>0</v>
       </c>
       <c r="AF29" s="11">
-        <v>4220</v>
-      </c>
-      <c r="AG29" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AH29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ29" s="11">
         <v>50</v>
       </c>
+      <c r="AI29" s="11">
+        <v>31000</v>
+      </c>
+      <c r="AJ29" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="AK29" s="11">
-        <v>31000</v>
+        <v>2260</v>
       </c>
       <c r="AL29" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AM29" s="11">
-        <v>2260</v>
-      </c>
-      <c r="AN29" s="11" t="s">
-        <v>62</v>
+        <v>2425</v>
+      </c>
+      <c r="AN29" s="11">
+        <v>200</v>
       </c>
       <c r="AO29" s="11">
-        <v>2425</v>
+        <v>500</v>
       </c>
       <c r="AP29" s="11">
+        <v>12978</v>
+      </c>
+      <c r="AQ29" s="11">
+        <v>3000</v>
+      </c>
+      <c r="AR29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU29" s="11">
+        <v>4318</v>
+      </c>
+      <c r="AV29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW29" s="11">
+        <v>2100</v>
+      </c>
+      <c r="AX29" s="11">
         <v>200</v>
       </c>
-      <c r="AQ29" s="11">
-        <v>500</v>
-      </c>
-      <c r="AR29" s="11">
-        <v>12978</v>
-      </c>
-      <c r="AS29" s="11">
-        <v>3000</v>
-      </c>
-      <c r="AT29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW29" s="11">
-        <v>4318</v>
-      </c>
-      <c r="AX29" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="AY29" s="11">
-        <v>2100</v>
+        <v>-1395</v>
       </c>
       <c r="AZ29" s="11">
-        <v>200</v>
+        <v>454</v>
       </c>
       <c r="BA29" s="11">
-        <v>1395</v>
+        <v>672</v>
       </c>
       <c r="BB29" s="11">
-        <v>454</v>
+        <v>4098</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>57</v>
       </c>
@@ -3651,41 +3651,41 @@
       <c r="V30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="W30" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="X30" s="13" t="s">
-        <v>62</v>
+      <c r="W30" s="13">
+        <v>0</v>
+      </c>
+      <c r="X30" s="13">
+        <v>0</v>
       </c>
       <c r="Y30" s="13">
         <v>0</v>
       </c>
       <c r="Z30" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA30" s="13">
         <v>0</v>
       </c>
       <c r="AB30" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="13">
         <v>0</v>
       </c>
       <c r="AD30" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE30" s="13">
         <v>0</v>
       </c>
       <c r="AF30" s="13">
-        <v>13</v>
-      </c>
-      <c r="AG30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH30" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="AI30" s="13" t="s">
         <v>62</v>
@@ -3708,18 +3708,18 @@
       <c r="AO30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AP30" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ30" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR30" s="13">
+      <c r="AP30" s="13">
         <v>2</v>
       </c>
-      <c r="AS30" s="13">
+      <c r="AQ30" s="13">
         <v>85483</v>
       </c>
+      <c r="AR30" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS30" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="AT30" s="13" t="s">
         <v>62</v>
       </c>
@@ -3735,20 +3735,20 @@
       <c r="AX30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AY30" s="13" t="s">
-        <v>62</v>
+      <c r="AY30" s="13">
+        <v>-30</v>
       </c>
       <c r="AZ30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BA30" s="13">
-        <v>30</v>
+      <c r="BA30" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="BB30" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>58</v>
       </c>
@@ -3810,26 +3810,26 @@
       <c r="V31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="W31" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>62</v>
+      <c r="W31" s="11">
+        <v>0</v>
+      </c>
+      <c r="X31" s="11">
+        <v>0</v>
       </c>
       <c r="Y31" s="11">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="Z31" s="11">
         <v>0</v>
       </c>
       <c r="AA31" s="11">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="AB31" s="11">
         <v>0</v>
       </c>
       <c r="AC31" s="11">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="11">
         <v>0</v>
@@ -3840,17 +3840,17 @@
       <c r="AF31" s="11">
         <v>0</v>
       </c>
-      <c r="AG31" s="11">
-        <v>0</v>
+      <c r="AG31" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AH31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AJ31" s="11">
-        <v>1</v>
+      <c r="AJ31" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AK31" s="11" t="s">
         <v>62</v>
@@ -3885,29 +3885,29 @@
       <c r="AU31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AV31" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX31" s="11">
+      <c r="AV31" s="11">
         <v>2600000</v>
       </c>
+      <c r="AW31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX31" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="AY31" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AZ31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="BA31" s="11">
-        <v>0</v>
+      <c r="BA31" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="BB31" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>66</v>
       </c>
@@ -3967,261 +3967,261 @@
       <c r="V32" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="W32" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="X32" s="19" t="s">
-        <v>62</v>
+      <c r="W32" s="19">
+        <v>0</v>
+      </c>
+      <c r="X32" s="19">
+        <v>0</v>
       </c>
       <c r="Y32" s="19">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="Z32" s="19">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="AA32" s="19">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="AB32" s="19">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="AC32" s="19">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="19">
-        <v>299</v>
+        <v>4233</v>
       </c>
       <c r="AE32" s="19">
         <v>0</v>
       </c>
       <c r="AF32" s="19">
-        <v>4233</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="19">
         <v>0</v>
       </c>
       <c r="AH32" s="19">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AI32" s="19">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="AJ32" s="19">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="19">
-        <v>31000</v>
+        <v>2260</v>
       </c>
       <c r="AL32" s="19">
         <v>0</v>
       </c>
       <c r="AM32" s="19">
-        <v>2260</v>
+        <v>2425</v>
       </c>
       <c r="AN32" s="19">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AO32" s="19">
-        <v>2425</v>
+        <v>500</v>
       </c>
       <c r="AP32" s="19">
+        <v>12980</v>
+      </c>
+      <c r="AQ32" s="19">
+        <v>88483</v>
+      </c>
+      <c r="AR32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="19">
+        <v>4318</v>
+      </c>
+      <c r="AV32" s="19">
+        <v>2600000</v>
+      </c>
+      <c r="AW32" s="19">
+        <v>2100</v>
+      </c>
+      <c r="AX32" s="19">
         <v>200</v>
       </c>
-      <c r="AQ32" s="19">
-        <v>500</v>
-      </c>
-      <c r="AR32" s="19">
-        <v>12980</v>
-      </c>
-      <c r="AS32" s="19">
-        <v>88483</v>
-      </c>
-      <c r="AT32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AV32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="19">
-        <v>4318</v>
-      </c>
-      <c r="AX32" s="19">
-        <v>2600000</v>
-      </c>
       <c r="AY32" s="19">
-        <v>2100</v>
+        <v>-1425</v>
       </c>
       <c r="AZ32" s="19">
-        <v>200</v>
+        <v>454</v>
       </c>
       <c r="BA32" s="19">
-        <v>1425</v>
+        <v>672</v>
       </c>
       <c r="BB32" s="19">
-        <v>454</v>
+        <v>4098</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17">
-        <v>169821</v>
+        <v>218317</v>
       </c>
       <c r="F33" s="17">
-        <v>360946</v>
+        <v>56926</v>
       </c>
       <c r="G33" s="17">
-        <v>218317</v>
+        <v>213544</v>
       </c>
       <c r="H33" s="17">
-        <v>56926</v>
+        <v>138319</v>
       </c>
       <c r="I33" s="17">
-        <v>213544</v>
+        <v>121860</v>
       </c>
       <c r="J33" s="17">
-        <v>138319</v>
+        <v>242659</v>
       </c>
       <c r="K33" s="17">
-        <v>121860</v>
+        <v>286797</v>
       </c>
       <c r="L33" s="17">
-        <v>242659</v>
+        <v>345739</v>
       </c>
       <c r="M33" s="17">
-        <v>286797</v>
+        <v>251761</v>
       </c>
       <c r="N33" s="17">
-        <v>345739</v>
+        <v>220250</v>
       </c>
       <c r="O33" s="17">
-        <v>251761</v>
+        <v>247578</v>
       </c>
       <c r="P33" s="17">
-        <v>220250</v>
+        <v>191580</v>
       </c>
       <c r="Q33" s="17">
-        <v>247578</v>
+        <v>252730</v>
       </c>
       <c r="R33" s="17">
-        <v>191580</v>
+        <v>156035</v>
       </c>
       <c r="S33" s="17">
-        <v>252730</v>
+        <v>110409</v>
       </c>
       <c r="T33" s="17">
-        <v>156035</v>
+        <v>106786</v>
       </c>
       <c r="U33" s="17">
-        <v>110409</v>
+        <v>269777</v>
       </c>
       <c r="V33" s="17">
-        <v>106786</v>
+        <v>284337</v>
       </c>
       <c r="W33" s="17">
-        <v>269777</v>
+        <v>280029</v>
       </c>
       <c r="X33" s="17">
-        <v>284337</v>
+        <v>218383</v>
       </c>
       <c r="Y33" s="17">
-        <v>280029</v>
+        <v>356185</v>
       </c>
       <c r="Z33" s="17">
-        <v>218383</v>
+        <v>394831</v>
       </c>
       <c r="AA33" s="17">
-        <v>356185</v>
+        <v>271186</v>
       </c>
       <c r="AB33" s="17">
-        <v>394831</v>
+        <v>444473</v>
       </c>
       <c r="AC33" s="17">
-        <v>271186</v>
+        <v>219233</v>
       </c>
       <c r="AD33" s="17">
-        <v>444473</v>
+        <v>256527</v>
       </c>
       <c r="AE33" s="17">
-        <v>219233</v>
+        <v>159198</v>
       </c>
       <c r="AF33" s="17">
-        <v>256527</v>
+        <v>2215482</v>
       </c>
       <c r="AG33" s="17">
-        <v>159198</v>
+        <v>9716393</v>
       </c>
       <c r="AH33" s="17">
-        <v>2215482</v>
+        <v>3524854</v>
       </c>
       <c r="AI33" s="17">
-        <v>9716393</v>
+        <v>21301126</v>
       </c>
       <c r="AJ33" s="17">
-        <v>3524854</v>
+        <v>6208129</v>
       </c>
       <c r="AK33" s="17">
-        <v>21301126</v>
+        <v>19344624</v>
       </c>
       <c r="AL33" s="17">
-        <v>6208129</v>
+        <v>5115258</v>
       </c>
       <c r="AM33" s="17">
-        <v>19344624</v>
+        <v>11250406</v>
       </c>
       <c r="AN33" s="17">
-        <v>5115258</v>
+        <v>7204082</v>
       </c>
       <c r="AO33" s="17">
-        <v>11250406</v>
+        <v>2227794</v>
       </c>
       <c r="AP33" s="17">
-        <v>7204082</v>
+        <v>6642182</v>
       </c>
       <c r="AQ33" s="17">
-        <v>2227794</v>
+        <v>6105159</v>
       </c>
       <c r="AR33" s="17">
-        <v>6642182</v>
+        <v>6665777</v>
       </c>
       <c r="AS33" s="17">
-        <v>6105159</v>
+        <v>789304</v>
       </c>
       <c r="AT33" s="17">
-        <v>6665777</v>
+        <v>37701752</v>
       </c>
       <c r="AU33" s="17">
-        <v>789304</v>
+        <v>1409399</v>
       </c>
       <c r="AV33" s="17">
-        <v>37701752</v>
+        <v>13667813</v>
       </c>
       <c r="AW33" s="17">
-        <v>1409399</v>
+        <v>800925</v>
       </c>
       <c r="AX33" s="17">
-        <v>13667813</v>
+        <v>7445612</v>
       </c>
       <c r="AY33" s="17">
-        <v>800925</v>
+        <v>1814905</v>
       </c>
       <c r="AZ33" s="17">
-        <v>7445612</v>
+        <v>875710</v>
       </c>
       <c r="BA33" s="17">
-        <v>1819180</v>
+        <v>801635</v>
       </c>
       <c r="BB33" s="17">
-        <v>875710</v>
+        <v>674698</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4276,7 +4276,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4331,7 +4331,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4386,7 +4386,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>67</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4598,7 +4598,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>67</v>
       </c>
@@ -4655,7 +4655,7 @@
       <c r="BA39" s="9"/>
       <c r="BB39" s="9"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>55</v>
       </c>
@@ -4664,157 +4664,157 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>72459</v>
+        <v>104055</v>
       </c>
       <c r="F40" s="11">
-        <v>144679</v>
+        <v>43152</v>
       </c>
       <c r="G40" s="11">
-        <v>104055</v>
+        <v>21614</v>
       </c>
       <c r="H40" s="11">
-        <v>43152</v>
+        <v>69180</v>
       </c>
       <c r="I40" s="11">
-        <v>21614</v>
+        <v>84304</v>
       </c>
       <c r="J40" s="11">
-        <v>69180</v>
+        <v>166642</v>
       </c>
       <c r="K40" s="11">
-        <v>84304</v>
+        <v>138482</v>
       </c>
       <c r="L40" s="11">
-        <v>166642</v>
+        <v>127096</v>
       </c>
       <c r="M40" s="11">
-        <v>138482</v>
+        <v>150784</v>
       </c>
       <c r="N40" s="11">
-        <v>127096</v>
+        <v>224956</v>
       </c>
       <c r="O40" s="11">
-        <v>150784</v>
+        <v>37700</v>
       </c>
       <c r="P40" s="11">
-        <v>224956</v>
+        <v>137220</v>
       </c>
       <c r="Q40" s="11">
-        <v>37700</v>
+        <v>181297</v>
       </c>
       <c r="R40" s="11">
-        <v>137220</v>
+        <v>91609</v>
       </c>
       <c r="S40" s="11">
-        <v>181297</v>
+        <v>64240</v>
       </c>
       <c r="T40" s="11">
-        <v>91609</v>
+        <v>126645</v>
       </c>
       <c r="U40" s="11">
-        <v>64240</v>
+        <v>272031</v>
       </c>
       <c r="V40" s="11">
-        <v>126645</v>
+        <v>242143</v>
       </c>
       <c r="W40" s="11">
-        <v>272031</v>
+        <v>240253</v>
       </c>
       <c r="X40" s="11">
-        <v>242143</v>
+        <v>316454</v>
       </c>
       <c r="Y40" s="11">
-        <v>240253</v>
+        <v>463591</v>
       </c>
       <c r="Z40" s="11">
-        <v>316454</v>
+        <v>423534</v>
       </c>
       <c r="AA40" s="11">
-        <v>463591</v>
+        <v>432070</v>
       </c>
       <c r="AB40" s="11">
-        <v>423534</v>
+        <v>555472</v>
       </c>
       <c r="AC40" s="11">
-        <v>432070</v>
+        <v>429292</v>
       </c>
       <c r="AD40" s="11">
-        <v>555472</v>
+        <v>449098</v>
       </c>
       <c r="AE40" s="11">
-        <v>429292</v>
+        <v>117536</v>
       </c>
       <c r="AF40" s="11">
-        <v>449098</v>
+        <v>427931</v>
       </c>
       <c r="AG40" s="11">
-        <v>117536</v>
+        <v>463083</v>
       </c>
       <c r="AH40" s="11">
-        <v>427931</v>
+        <v>586980</v>
       </c>
       <c r="AI40" s="11">
-        <v>463083</v>
+        <v>384648</v>
       </c>
       <c r="AJ40" s="11">
-        <v>586980</v>
+        <v>312238</v>
       </c>
       <c r="AK40" s="11">
-        <v>384648</v>
+        <v>795186</v>
       </c>
       <c r="AL40" s="11">
-        <v>312238</v>
+        <v>347212</v>
       </c>
       <c r="AM40" s="11">
-        <v>795186</v>
+        <v>537362</v>
       </c>
       <c r="AN40" s="11">
-        <v>347212</v>
+        <v>507961</v>
       </c>
       <c r="AO40" s="11">
-        <v>537362</v>
+        <v>746813</v>
       </c>
       <c r="AP40" s="11">
-        <v>507961</v>
+        <v>751357</v>
       </c>
       <c r="AQ40" s="11">
-        <v>746813</v>
+        <v>270950</v>
       </c>
       <c r="AR40" s="11">
-        <v>751357</v>
+        <v>64077</v>
       </c>
       <c r="AS40" s="11">
-        <v>270950</v>
+        <v>637157</v>
       </c>
       <c r="AT40" s="11">
-        <v>64077</v>
+        <v>555701</v>
       </c>
       <c r="AU40" s="11">
-        <v>637157</v>
+        <v>759655</v>
       </c>
       <c r="AV40" s="11">
-        <v>555701</v>
+        <v>787948</v>
       </c>
       <c r="AW40" s="11">
-        <v>759655</v>
+        <v>1152750</v>
       </c>
       <c r="AX40" s="11">
-        <v>787948</v>
+        <v>748236</v>
       </c>
       <c r="AY40" s="11">
-        <v>1152750</v>
+        <v>526878</v>
       </c>
       <c r="AZ40" s="11">
-        <v>748236</v>
+        <v>585952</v>
       </c>
       <c r="BA40" s="11">
-        <v>526878</v>
+        <v>997113</v>
       </c>
       <c r="BB40" s="11">
-        <v>585952</v>
+        <v>1500937</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>57</v>
       </c>
@@ -4823,157 +4823,157 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>173497</v>
+        <v>60126</v>
       </c>
       <c r="F41" s="13">
-        <v>81192</v>
+        <v>86936</v>
       </c>
       <c r="G41" s="13">
-        <v>60126</v>
+        <v>68326</v>
       </c>
       <c r="H41" s="13">
-        <v>86936</v>
+        <v>73438</v>
       </c>
       <c r="I41" s="13">
-        <v>68326</v>
+        <v>98541</v>
       </c>
       <c r="J41" s="13">
-        <v>73438</v>
+        <v>87313</v>
       </c>
       <c r="K41" s="13">
-        <v>98541</v>
+        <v>153284</v>
       </c>
       <c r="L41" s="13">
-        <v>87313</v>
+        <v>129932</v>
       </c>
       <c r="M41" s="13">
-        <v>153284</v>
+        <v>96034</v>
       </c>
       <c r="N41" s="13">
-        <v>129932</v>
+        <v>51336</v>
       </c>
       <c r="O41" s="13">
-        <v>96034</v>
+        <v>196868</v>
       </c>
       <c r="P41" s="13">
-        <v>51336</v>
+        <v>293758</v>
       </c>
       <c r="Q41" s="13">
-        <v>196868</v>
+        <v>340851</v>
       </c>
       <c r="R41" s="13">
-        <v>293758</v>
+        <v>130582</v>
       </c>
       <c r="S41" s="13">
-        <v>340851</v>
+        <v>32255</v>
       </c>
       <c r="T41" s="13">
-        <v>130582</v>
+        <v>76963</v>
       </c>
       <c r="U41" s="13">
-        <v>32255</v>
+        <v>172787</v>
       </c>
       <c r="V41" s="13">
-        <v>76963</v>
+        <v>265621</v>
       </c>
       <c r="W41" s="13">
-        <v>172787</v>
+        <v>266329</v>
       </c>
       <c r="X41" s="13">
-        <v>265621</v>
+        <v>258569</v>
       </c>
       <c r="Y41" s="13">
-        <v>266329</v>
+        <v>201936</v>
       </c>
       <c r="Z41" s="13">
-        <v>258569</v>
+        <v>289579</v>
       </c>
       <c r="AA41" s="13">
-        <v>201936</v>
+        <v>104333</v>
       </c>
       <c r="AB41" s="13">
-        <v>289579</v>
+        <v>470843</v>
       </c>
       <c r="AC41" s="13">
-        <v>104333</v>
+        <v>179277</v>
       </c>
       <c r="AD41" s="13">
-        <v>470843</v>
+        <v>111441</v>
       </c>
       <c r="AE41" s="13">
-        <v>179277</v>
+        <v>38005</v>
       </c>
       <c r="AF41" s="13">
-        <v>111441</v>
+        <v>310992</v>
       </c>
       <c r="AG41" s="13">
-        <v>38005</v>
+        <v>280571</v>
       </c>
       <c r="AH41" s="13">
-        <v>310992</v>
+        <v>129580</v>
       </c>
       <c r="AI41" s="13">
-        <v>280571</v>
+        <v>553893</v>
       </c>
       <c r="AJ41" s="13">
-        <v>129580</v>
+        <v>261054</v>
       </c>
       <c r="AK41" s="13">
-        <v>553893</v>
+        <v>316426</v>
       </c>
       <c r="AL41" s="13">
-        <v>261054</v>
+        <v>98768</v>
       </c>
       <c r="AM41" s="13">
-        <v>316426</v>
+        <v>150806</v>
       </c>
       <c r="AN41" s="13">
-        <v>98768</v>
+        <v>158412</v>
       </c>
       <c r="AO41" s="13">
-        <v>150806</v>
+        <v>229498</v>
       </c>
       <c r="AP41" s="13">
-        <v>158412</v>
+        <v>121830</v>
       </c>
       <c r="AQ41" s="13">
-        <v>229498</v>
+        <v>128823</v>
       </c>
       <c r="AR41" s="13">
-        <v>121830</v>
+        <v>354100</v>
       </c>
       <c r="AS41" s="13">
-        <v>128823</v>
+        <v>385055</v>
       </c>
       <c r="AT41" s="13">
-        <v>354100</v>
+        <v>157718</v>
       </c>
       <c r="AU41" s="13">
-        <v>385055</v>
+        <v>92697</v>
       </c>
       <c r="AV41" s="13">
-        <v>157718</v>
+        <v>93234</v>
       </c>
       <c r="AW41" s="13">
-        <v>92697</v>
+        <v>143590</v>
       </c>
       <c r="AX41" s="13">
-        <v>93234</v>
+        <v>128039</v>
       </c>
       <c r="AY41" s="13">
-        <v>143590</v>
+        <v>114425</v>
       </c>
       <c r="AZ41" s="13">
-        <v>128039</v>
+        <v>219407</v>
       </c>
       <c r="BA41" s="13">
-        <v>114425</v>
+        <v>152109</v>
       </c>
       <c r="BB41" s="13">
-        <v>219407</v>
+        <v>206207</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>58</v>
       </c>
@@ -4982,157 +4982,157 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>17981</v>
+        <v>24384</v>
       </c>
       <c r="F42" s="11">
-        <v>42800</v>
+        <v>0</v>
       </c>
       <c r="G42" s="11">
-        <v>24384</v>
+        <v>54039</v>
       </c>
       <c r="H42" s="11">
-        <v>0</v>
+        <v>16371</v>
       </c>
       <c r="I42" s="11">
-        <v>54039</v>
+        <v>34588</v>
       </c>
       <c r="J42" s="11">
-        <v>16371</v>
+        <v>31044</v>
       </c>
       <c r="K42" s="11">
-        <v>34588</v>
+        <v>50160</v>
       </c>
       <c r="L42" s="11">
-        <v>31044</v>
+        <v>40336</v>
       </c>
       <c r="M42" s="11">
-        <v>50160</v>
+        <v>35254</v>
       </c>
       <c r="N42" s="11">
-        <v>40336</v>
+        <v>35169</v>
       </c>
       <c r="O42" s="11">
-        <v>35254</v>
+        <v>33482</v>
       </c>
       <c r="P42" s="11">
-        <v>35169</v>
+        <v>25050</v>
       </c>
       <c r="Q42" s="11">
-        <v>33482</v>
+        <v>40143</v>
       </c>
       <c r="R42" s="11">
-        <v>25050</v>
+        <v>44834</v>
       </c>
       <c r="S42" s="11">
-        <v>40143</v>
+        <v>10706</v>
       </c>
       <c r="T42" s="11">
-        <v>44834</v>
+        <v>9958</v>
       </c>
       <c r="U42" s="11">
-        <v>10706</v>
+        <v>37176</v>
       </c>
       <c r="V42" s="11">
-        <v>9958</v>
+        <v>43358</v>
       </c>
       <c r="W42" s="11">
-        <v>37176</v>
+        <v>68361</v>
       </c>
       <c r="X42" s="11">
-        <v>43358</v>
+        <v>75538</v>
       </c>
       <c r="Y42" s="11">
-        <v>68361</v>
+        <v>126376</v>
       </c>
       <c r="Z42" s="11">
-        <v>75538</v>
+        <v>99815</v>
       </c>
       <c r="AA42" s="11">
-        <v>126376</v>
+        <v>109472</v>
       </c>
       <c r="AB42" s="11">
-        <v>99815</v>
+        <v>152129</v>
       </c>
       <c r="AC42" s="11">
-        <v>109472</v>
+        <v>54342</v>
       </c>
       <c r="AD42" s="11">
-        <v>152129</v>
+        <v>61172</v>
       </c>
       <c r="AE42" s="11">
-        <v>54342</v>
+        <v>75863</v>
       </c>
       <c r="AF42" s="11">
-        <v>61172</v>
+        <v>28486</v>
       </c>
       <c r="AG42" s="11">
-        <v>75863</v>
+        <v>103913</v>
       </c>
       <c r="AH42" s="11">
-        <v>28486</v>
+        <v>57308</v>
       </c>
       <c r="AI42" s="11">
-        <v>103913</v>
+        <v>154109</v>
       </c>
       <c r="AJ42" s="11">
-        <v>57308</v>
+        <v>73034</v>
       </c>
       <c r="AK42" s="11">
-        <v>154109</v>
+        <v>153291</v>
       </c>
       <c r="AL42" s="11">
-        <v>73034</v>
+        <v>75420</v>
       </c>
       <c r="AM42" s="11">
-        <v>153291</v>
+        <v>83758</v>
       </c>
       <c r="AN42" s="11">
-        <v>75420</v>
+        <v>76320</v>
       </c>
       <c r="AO42" s="11">
-        <v>83758</v>
+        <v>68947</v>
       </c>
       <c r="AP42" s="11">
-        <v>76320</v>
+        <v>104804</v>
       </c>
       <c r="AQ42" s="11">
-        <v>68947</v>
+        <v>74739</v>
       </c>
       <c r="AR42" s="11">
-        <v>104804</v>
+        <v>65582</v>
       </c>
       <c r="AS42" s="11">
-        <v>74739</v>
+        <v>14761</v>
       </c>
       <c r="AT42" s="11">
-        <v>65582</v>
+        <v>302901</v>
       </c>
       <c r="AU42" s="11">
-        <v>14761</v>
+        <v>197218</v>
       </c>
       <c r="AV42" s="11">
-        <v>302901</v>
+        <v>187527</v>
       </c>
       <c r="AW42" s="11">
-        <v>197218</v>
+        <v>163829</v>
       </c>
       <c r="AX42" s="11">
-        <v>187527</v>
+        <v>162577</v>
       </c>
       <c r="AY42" s="11">
-        <v>163829</v>
+        <v>110259</v>
       </c>
       <c r="AZ42" s="11">
-        <v>162577</v>
+        <v>163013</v>
       </c>
       <c r="BA42" s="11">
-        <v>110259</v>
+        <v>194867</v>
       </c>
       <c r="BB42" s="11">
-        <v>163013</v>
+        <v>105827</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>69</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="BA43" s="15"/>
       <c r="BB43" s="15"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>61</v>
       </c>
@@ -5251,11 +5251,11 @@
       <c r="V44" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="W44" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="X44" s="17" t="s">
-        <v>62</v>
+      <c r="W44" s="17">
+        <v>0</v>
+      </c>
+      <c r="X44" s="17">
+        <v>0</v>
       </c>
       <c r="Y44" s="17">
         <v>0</v>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>70</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="BA45" s="9"/>
       <c r="BB45" s="9"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>55</v>
       </c>
@@ -5467,104 +5467,104 @@
       <c r="V46" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="W46" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X46" s="11" t="s">
-        <v>62</v>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+      <c r="X46" s="11">
+        <v>0</v>
       </c>
       <c r="Y46" s="11">
         <v>0</v>
       </c>
       <c r="Z46" s="11">
-        <v>0</v>
+        <v>-1376</v>
       </c>
       <c r="AA46" s="11">
         <v>0</v>
       </c>
       <c r="AB46" s="11">
-        <v>-1376</v>
+        <v>-389</v>
       </c>
       <c r="AC46" s="11">
         <v>0</v>
       </c>
       <c r="AD46" s="11">
-        <v>-389</v>
+        <v>-6963</v>
       </c>
       <c r="AE46" s="11">
         <v>0</v>
       </c>
       <c r="AF46" s="11">
-        <v>-6963</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="11">
         <v>0</v>
       </c>
       <c r="AH46" s="11">
-        <v>0</v>
+        <v>-610</v>
       </c>
       <c r="AI46" s="11">
-        <v>0</v>
+        <v>-111600</v>
       </c>
       <c r="AJ46" s="11">
-        <v>-610</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="11">
-        <v>-111600</v>
+        <v>-2642</v>
       </c>
       <c r="AL46" s="11">
         <v>0</v>
       </c>
       <c r="AM46" s="11">
-        <v>-2642</v>
+        <v>-12086</v>
       </c>
       <c r="AN46" s="11">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="AO46" s="11">
-        <v>-12086</v>
+        <v>-2300</v>
       </c>
       <c r="AP46" s="11">
-        <v>-2700</v>
+        <v>-69506</v>
       </c>
       <c r="AQ46" s="11">
-        <v>-2300</v>
-      </c>
-      <c r="AR46" s="11">
-        <v>-69506</v>
-      </c>
-      <c r="AS46" s="11">
         <v>-6450</v>
       </c>
-      <c r="AT46" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU46" s="11" t="s">
-        <v>62</v>
+      <c r="AR46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="11">
+        <v>-25811</v>
       </c>
       <c r="AV46" s="11">
         <v>0</v>
       </c>
       <c r="AW46" s="11">
-        <v>-25829</v>
+        <v>-28447</v>
       </c>
       <c r="AX46" s="11">
-        <v>0</v>
+        <v>-740</v>
       </c>
       <c r="AY46" s="11">
-        <v>-28447</v>
+        <v>-21034</v>
       </c>
       <c r="AZ46" s="11">
-        <v>-740</v>
+        <v>-28164</v>
       </c>
       <c r="BA46" s="11">
-        <v>-21034</v>
+        <v>-63504</v>
       </c>
       <c r="BB46" s="11">
-        <v>-28164</v>
+        <v>-37972</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>57</v>
       </c>
@@ -5626,35 +5626,35 @@
       <c r="V47" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="W47" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="X47" s="13" t="s">
-        <v>62</v>
+      <c r="W47" s="13">
+        <v>0</v>
+      </c>
+      <c r="X47" s="13">
+        <v>0</v>
       </c>
       <c r="Y47" s="13">
         <v>0</v>
       </c>
       <c r="Z47" s="13">
-        <v>0</v>
+        <v>-4650</v>
       </c>
       <c r="AA47" s="13">
         <v>0</v>
       </c>
       <c r="AB47" s="13">
-        <v>-4650</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="13">
         <v>0</v>
       </c>
       <c r="AD47" s="13">
-        <v>0</v>
+        <v>-20723</v>
       </c>
       <c r="AE47" s="13">
         <v>0</v>
       </c>
       <c r="AF47" s="13">
-        <v>-20723</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="13">
         <v>0</v>
@@ -5684,17 +5684,17 @@
         <v>0</v>
       </c>
       <c r="AP47" s="13">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="AQ47" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR47" s="13">
-        <v>-2400</v>
-      </c>
-      <c r="AS47" s="13">
         <v>-693</v>
       </c>
+      <c r="AR47" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS47" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="AT47" s="13" t="s">
         <v>62</v>
       </c>
@@ -5710,20 +5710,20 @@
       <c r="AX47" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AY47" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ47" s="13" t="s">
-        <v>62</v>
+      <c r="AY47" s="13">
+        <v>-49500</v>
+      </c>
+      <c r="AZ47" s="13">
+        <v>0</v>
       </c>
       <c r="BA47" s="13">
-        <v>-49500</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>58</v>
       </c>
@@ -5785,26 +5785,26 @@
       <c r="V48" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="W48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X48" s="11" t="s">
-        <v>62</v>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+      <c r="X48" s="11">
+        <v>0</v>
       </c>
       <c r="Y48" s="11">
-        <v>0</v>
+        <v>-264</v>
       </c>
       <c r="Z48" s="11">
         <v>0</v>
       </c>
       <c r="AA48" s="11">
-        <v>-264</v>
+        <v>-38</v>
       </c>
       <c r="AB48" s="11">
         <v>0</v>
       </c>
       <c r="AC48" s="11">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="11">
         <v>0</v>
@@ -5848,26 +5848,26 @@
       <c r="AQ48" s="11">
         <v>0</v>
       </c>
-      <c r="AR48" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS48" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU48" s="11" t="s">
-        <v>62</v>
+      <c r="AR48" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS48" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="11">
+        <v>0</v>
       </c>
       <c r="AV48" s="11">
-        <v>0</v>
+        <v>-3385</v>
       </c>
       <c r="AW48" s="11">
         <v>0</v>
       </c>
       <c r="AX48" s="11">
-        <v>-3385</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="11">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>66</v>
       </c>
@@ -5944,104 +5944,104 @@
       <c r="V49" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="W49" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="X49" s="19" t="s">
-        <v>62</v>
+      <c r="W49" s="19">
+        <v>0</v>
+      </c>
+      <c r="X49" s="19">
+        <v>0</v>
       </c>
       <c r="Y49" s="19">
-        <v>0</v>
+        <v>-264</v>
       </c>
       <c r="Z49" s="19">
-        <v>0</v>
+        <v>-6026</v>
       </c>
       <c r="AA49" s="19">
-        <v>-264</v>
+        <v>-38</v>
       </c>
       <c r="AB49" s="19">
-        <v>-6026</v>
+        <v>-389</v>
       </c>
       <c r="AC49" s="19">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="19">
-        <v>-389</v>
+        <v>-27686</v>
       </c>
       <c r="AE49" s="19">
         <v>0</v>
       </c>
       <c r="AF49" s="19">
-        <v>-27686</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="19">
         <v>0</v>
       </c>
       <c r="AH49" s="19">
-        <v>0</v>
+        <v>-610</v>
       </c>
       <c r="AI49" s="19">
-        <v>0</v>
+        <v>-111600</v>
       </c>
       <c r="AJ49" s="19">
-        <v>-610</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="19">
-        <v>-111600</v>
+        <v>-2642</v>
       </c>
       <c r="AL49" s="19">
         <v>0</v>
       </c>
       <c r="AM49" s="19">
-        <v>-2642</v>
+        <v>-12086</v>
       </c>
       <c r="AN49" s="19">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="AO49" s="19">
-        <v>-12086</v>
+        <v>-2300</v>
       </c>
       <c r="AP49" s="19">
-        <v>-2700</v>
+        <v>-71906</v>
       </c>
       <c r="AQ49" s="19">
-        <v>-2300</v>
+        <v>-7143</v>
       </c>
       <c r="AR49" s="19">
-        <v>-71906</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="19">
-        <v>-7143</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="19">
         <v>0</v>
       </c>
       <c r="AU49" s="19">
-        <v>0</v>
+        <v>-25811</v>
       </c>
       <c r="AV49" s="19">
-        <v>0</v>
+        <v>-3385</v>
       </c>
       <c r="AW49" s="19">
-        <v>-25829</v>
+        <v>-28447</v>
       </c>
       <c r="AX49" s="19">
-        <v>-3385</v>
+        <v>-740</v>
       </c>
       <c r="AY49" s="19">
-        <v>-28447</v>
+        <v>-70534</v>
       </c>
       <c r="AZ49" s="19">
-        <v>-740</v>
+        <v>-28164</v>
       </c>
       <c r="BA49" s="19">
-        <v>-70534</v>
+        <v>-63504</v>
       </c>
       <c r="BB49" s="19">
-        <v>-28164</v>
+        <v>-37972</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>71</v>
       </c>
@@ -6098,7 +6098,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>72</v>
       </c>
@@ -6160,261 +6160,261 @@
       <c r="V51" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="W51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X51" s="11" t="s">
-        <v>62</v>
+      <c r="W51" s="11">
+        <v>-4712</v>
+      </c>
+      <c r="X51" s="11">
+        <v>-1713</v>
       </c>
       <c r="Y51" s="11">
-        <v>-4712</v>
+        <v>-4214</v>
       </c>
       <c r="Z51" s="11">
-        <v>-1713</v>
+        <v>-3731</v>
       </c>
       <c r="AA51" s="11">
-        <v>-4214</v>
+        <v>-3669</v>
       </c>
       <c r="AB51" s="11">
-        <v>-3731</v>
+        <v>-13876</v>
       </c>
       <c r="AC51" s="11">
-        <v>-3669</v>
+        <v>-6437</v>
       </c>
       <c r="AD51" s="11">
-        <v>-13876</v>
+        <v>-19574</v>
       </c>
       <c r="AE51" s="11">
-        <v>-6437</v>
+        <v>-20941</v>
       </c>
       <c r="AF51" s="11">
-        <v>-19574</v>
+        <v>-11781</v>
       </c>
       <c r="AG51" s="11">
-        <v>-20941</v>
+        <v>-9999</v>
       </c>
       <c r="AH51" s="11">
-        <v>-11781</v>
+        <v>-5291</v>
       </c>
       <c r="AI51" s="11">
-        <v>-9999</v>
+        <v>-3480</v>
       </c>
       <c r="AJ51" s="11">
-        <v>-5291</v>
+        <v>-8188</v>
       </c>
       <c r="AK51" s="11">
-        <v>-3480</v>
+        <v>-18964</v>
       </c>
       <c r="AL51" s="11">
-        <v>-8188</v>
+        <v>-10619</v>
       </c>
       <c r="AM51" s="11">
-        <v>-18964</v>
+        <v>-10522</v>
       </c>
       <c r="AN51" s="11">
-        <v>-10619</v>
+        <v>-18071</v>
       </c>
       <c r="AO51" s="11">
-        <v>-10522</v>
+        <v>-10544</v>
       </c>
       <c r="AP51" s="11">
-        <v>-18071</v>
+        <v>-25394</v>
       </c>
       <c r="AQ51" s="11">
-        <v>-10544</v>
+        <v>-14139</v>
       </c>
       <c r="AR51" s="11">
-        <v>-25394</v>
+        <v>-5723</v>
       </c>
       <c r="AS51" s="11">
-        <v>-14139</v>
+        <v>-2000</v>
       </c>
       <c r="AT51" s="11">
-        <v>-5723</v>
+        <v>-28450</v>
       </c>
       <c r="AU51" s="11">
-        <v>-2000</v>
+        <v>-23140</v>
       </c>
       <c r="AV51" s="11">
-        <v>-28450</v>
+        <v>-20360</v>
       </c>
       <c r="AW51" s="11">
-        <v>-23140</v>
+        <v>-30812</v>
       </c>
       <c r="AX51" s="11">
-        <v>-20360</v>
+        <v>-37166</v>
       </c>
       <c r="AY51" s="11">
-        <v>-30812</v>
+        <v>-17216</v>
       </c>
       <c r="AZ51" s="11">
-        <v>-37166</v>
+        <v>-33401</v>
       </c>
       <c r="BA51" s="11">
-        <v>-17216</v>
+        <v>-84854</v>
       </c>
       <c r="BB51" s="11">
-        <v>-33401</v>
+        <v>-24557</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19">
-        <v>263937</v>
+        <v>188565</v>
       </c>
       <c r="F52" s="19">
-        <v>268671</v>
+        <v>130088</v>
       </c>
       <c r="G52" s="19">
-        <v>188565</v>
+        <v>143979</v>
       </c>
       <c r="H52" s="19">
-        <v>130088</v>
+        <v>158989</v>
       </c>
       <c r="I52" s="19">
-        <v>143979</v>
+        <v>217433</v>
       </c>
       <c r="J52" s="19">
-        <v>158989</v>
+        <v>284999</v>
       </c>
       <c r="K52" s="19">
-        <v>217433</v>
+        <v>341926</v>
       </c>
       <c r="L52" s="19">
-        <v>284999</v>
+        <v>297364</v>
       </c>
       <c r="M52" s="19">
-        <v>341926</v>
+        <v>282072</v>
       </c>
       <c r="N52" s="19">
-        <v>297364</v>
+        <v>311461</v>
       </c>
       <c r="O52" s="19">
-        <v>282072</v>
+        <v>268050</v>
       </c>
       <c r="P52" s="19">
-        <v>311461</v>
+        <v>456028</v>
       </c>
       <c r="Q52" s="19">
-        <v>268050</v>
+        <v>562291</v>
       </c>
       <c r="R52" s="19">
-        <v>456028</v>
+        <v>267025</v>
       </c>
       <c r="S52" s="19">
-        <v>562291</v>
+        <v>107201</v>
       </c>
       <c r="T52" s="19">
-        <v>267025</v>
+        <v>213566</v>
       </c>
       <c r="U52" s="19">
-        <v>107201</v>
+        <v>481994</v>
       </c>
       <c r="V52" s="19">
-        <v>213566</v>
+        <v>551123</v>
       </c>
       <c r="W52" s="19">
-        <v>481994</v>
+        <v>570231</v>
       </c>
       <c r="X52" s="19">
-        <v>551123</v>
+        <v>648848</v>
       </c>
       <c r="Y52" s="19">
-        <v>570231</v>
+        <v>787425</v>
       </c>
       <c r="Z52" s="19">
-        <v>648848</v>
+        <v>803171</v>
       </c>
       <c r="AA52" s="19">
-        <v>787425</v>
+        <v>642168</v>
       </c>
       <c r="AB52" s="19">
-        <v>803171</v>
+        <v>1164179</v>
       </c>
       <c r="AC52" s="19">
-        <v>642168</v>
+        <v>656474</v>
       </c>
       <c r="AD52" s="19">
-        <v>1164179</v>
+        <v>574451</v>
       </c>
       <c r="AE52" s="19">
-        <v>656474</v>
+        <v>210463</v>
       </c>
       <c r="AF52" s="19">
-        <v>574451</v>
+        <v>755628</v>
       </c>
       <c r="AG52" s="19">
-        <v>210463</v>
+        <v>837568</v>
       </c>
       <c r="AH52" s="19">
-        <v>755628</v>
+        <v>767967</v>
       </c>
       <c r="AI52" s="19">
-        <v>837568</v>
+        <v>977570</v>
       </c>
       <c r="AJ52" s="19">
-        <v>767967</v>
+        <v>638138</v>
       </c>
       <c r="AK52" s="19">
-        <v>977570</v>
+        <v>1243297</v>
       </c>
       <c r="AL52" s="19">
-        <v>638138</v>
+        <v>510781</v>
       </c>
       <c r="AM52" s="19">
-        <v>1243297</v>
+        <v>749318</v>
       </c>
       <c r="AN52" s="19">
-        <v>510781</v>
+        <v>721922</v>
       </c>
       <c r="AO52" s="19">
-        <v>749318</v>
+        <v>1032414</v>
       </c>
       <c r="AP52" s="19">
-        <v>721922</v>
+        <v>880691</v>
       </c>
       <c r="AQ52" s="19">
-        <v>1032414</v>
+        <v>453230</v>
       </c>
       <c r="AR52" s="19">
-        <v>880691</v>
+        <v>478036</v>
       </c>
       <c r="AS52" s="19">
-        <v>453230</v>
+        <v>1034973</v>
       </c>
       <c r="AT52" s="19">
-        <v>478036</v>
+        <v>987870</v>
       </c>
       <c r="AU52" s="19">
-        <v>1034973</v>
+        <v>1000619</v>
       </c>
       <c r="AV52" s="19">
-        <v>987870</v>
+        <v>1044964</v>
       </c>
       <c r="AW52" s="19">
-        <v>1000601</v>
+        <v>1400910</v>
       </c>
       <c r="AX52" s="19">
-        <v>1044964</v>
+        <v>1000946</v>
       </c>
       <c r="AY52" s="19">
-        <v>1400910</v>
+        <v>663812</v>
       </c>
       <c r="AZ52" s="19">
-        <v>1000946</v>
+        <v>906807</v>
       </c>
       <c r="BA52" s="19">
-        <v>663812</v>
+        <v>1195731</v>
       </c>
       <c r="BB52" s="19">
-        <v>906807</v>
+        <v>1750442</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6469,7 +6469,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6524,7 +6524,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6579,7 +6579,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>73</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6791,7 +6791,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>74</v>
       </c>
@@ -6848,7 +6848,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>55</v>
       </c>
@@ -6857,157 +6857,157 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>992970</v>
+        <v>913645</v>
       </c>
       <c r="F59" s="11">
-        <v>854981</v>
+        <v>1015389</v>
       </c>
       <c r="G59" s="11">
-        <v>913645</v>
+        <v>530119</v>
       </c>
       <c r="H59" s="11">
-        <v>1015389</v>
+        <v>823846</v>
       </c>
       <c r="I59" s="11">
-        <v>530119</v>
+        <v>8344452</v>
       </c>
       <c r="J59" s="11">
-        <v>823846</v>
+        <v>1051316</v>
       </c>
       <c r="K59" s="11">
-        <v>8344452</v>
+        <v>920397</v>
       </c>
       <c r="L59" s="11">
-        <v>1051316</v>
+        <v>637271</v>
       </c>
       <c r="M59" s="11">
-        <v>920397</v>
+        <v>1029088</v>
       </c>
       <c r="N59" s="11">
-        <v>637271</v>
+        <v>2060829</v>
       </c>
       <c r="O59" s="11">
-        <v>1029088</v>
+        <v>246436</v>
       </c>
       <c r="P59" s="11">
-        <v>2060829</v>
+        <v>1130518</v>
       </c>
       <c r="Q59" s="11">
-        <v>246436</v>
+        <v>1223203</v>
       </c>
       <c r="R59" s="11">
-        <v>1130518</v>
+        <v>1080371</v>
       </c>
       <c r="S59" s="11">
-        <v>1223203</v>
+        <v>1068512</v>
       </c>
       <c r="T59" s="11">
-        <v>1080371</v>
+        <v>1570817</v>
       </c>
       <c r="U59" s="11">
-        <v>1068512</v>
+        <v>1507537</v>
       </c>
       <c r="V59" s="11">
-        <v>1570817</v>
+        <v>1459994</v>
       </c>
       <c r="W59" s="11">
-        <v>1507537</v>
+        <v>1764309</v>
       </c>
       <c r="X59" s="11">
-        <v>1459994</v>
+        <v>3045169</v>
       </c>
       <c r="Y59" s="11">
-        <v>1764309</v>
+        <v>2012332</v>
       </c>
       <c r="Z59" s="11">
-        <v>3045169</v>
+        <v>1903797</v>
       </c>
       <c r="AA59" s="11">
-        <v>2012332</v>
+        <v>2440715</v>
       </c>
       <c r="AB59" s="11">
-        <v>1903797</v>
+        <v>2164494</v>
       </c>
       <c r="AC59" s="11">
-        <v>2440715</v>
+        <v>2658270</v>
       </c>
       <c r="AD59" s="11">
-        <v>2164494</v>
+        <v>2902106</v>
       </c>
       <c r="AE59" s="11">
-        <v>2658270</v>
+        <v>2551802</v>
       </c>
       <c r="AF59" s="11">
-        <v>2902106</v>
+        <v>3165966</v>
       </c>
       <c r="AG59" s="11">
-        <v>2551802</v>
+        <v>3472949</v>
       </c>
       <c r="AH59" s="11">
-        <v>3165966</v>
+        <v>4038529</v>
       </c>
       <c r="AI59" s="11">
-        <v>3472949</v>
+        <v>4045732</v>
       </c>
       <c r="AJ59" s="11">
-        <v>4038529</v>
+        <v>3371245</v>
       </c>
       <c r="AK59" s="11">
-        <v>4045732</v>
+        <v>3665803</v>
       </c>
       <c r="AL59" s="11">
-        <v>3371245</v>
+        <v>3681369</v>
       </c>
       <c r="AM59" s="11">
-        <v>3665803</v>
+        <v>3562416</v>
       </c>
       <c r="AN59" s="11">
-        <v>3681369</v>
+        <v>3718057</v>
       </c>
       <c r="AO59" s="11">
-        <v>3562416</v>
+        <v>3887950</v>
       </c>
       <c r="AP59" s="11">
-        <v>3718057</v>
+        <v>5481757</v>
       </c>
       <c r="AQ59" s="11">
-        <v>3887950</v>
+        <v>6157115</v>
       </c>
       <c r="AR59" s="11">
-        <v>5481757</v>
+        <v>13780000</v>
       </c>
       <c r="AS59" s="11">
-        <v>6157115</v>
+        <v>4300321</v>
       </c>
       <c r="AT59" s="11">
-        <v>13780000</v>
+        <v>4303190</v>
       </c>
       <c r="AU59" s="11">
-        <v>4300321</v>
+        <v>6254158</v>
       </c>
       <c r="AV59" s="11">
-        <v>4303190</v>
+        <v>7711297</v>
       </c>
       <c r="AW59" s="11">
-        <v>6254158</v>
+        <v>6101079</v>
       </c>
       <c r="AX59" s="11">
-        <v>7711297</v>
+        <v>5457394</v>
       </c>
       <c r="AY59" s="11">
-        <v>6101079</v>
+        <v>4453142</v>
       </c>
       <c r="AZ59" s="11">
-        <v>5457394</v>
+        <v>5094482</v>
       </c>
       <c r="BA59" s="11">
-        <v>4401250</v>
+        <v>5453294</v>
       </c>
       <c r="BB59" s="11">
-        <v>5094482</v>
+        <v>4806998</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>57</v>
       </c>
@@ -7016,157 +7016,157 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>7139500</v>
+        <v>3599282</v>
       </c>
       <c r="F60" s="13">
-        <v>4688030</v>
+        <v>6025506</v>
       </c>
       <c r="G60" s="13">
-        <v>3599282</v>
+        <v>3977993</v>
       </c>
       <c r="H60" s="13">
-        <v>6025506</v>
+        <v>6275679</v>
       </c>
       <c r="I60" s="13">
-        <v>3977993</v>
+        <v>9702737</v>
       </c>
       <c r="J60" s="13">
-        <v>6275679</v>
+        <v>31362428</v>
       </c>
       <c r="K60" s="13">
-        <v>9702737</v>
+        <v>16448546</v>
       </c>
       <c r="L60" s="13">
-        <v>31362428</v>
+        <v>7266078</v>
       </c>
       <c r="M60" s="13">
-        <v>16448546</v>
+        <v>8592109</v>
       </c>
       <c r="N60" s="13">
-        <v>7266078</v>
+        <v>1827554</v>
       </c>
       <c r="O60" s="13">
-        <v>8592109</v>
+        <v>8992691</v>
       </c>
       <c r="P60" s="13">
-        <v>1827554</v>
+        <v>13532870</v>
       </c>
       <c r="Q60" s="13">
-        <v>8992691</v>
+        <v>8339270</v>
       </c>
       <c r="R60" s="13">
-        <v>13532870</v>
+        <v>24403289</v>
       </c>
       <c r="S60" s="13">
-        <v>8339270</v>
+        <v>2061418</v>
       </c>
       <c r="T60" s="13">
-        <v>24403289</v>
+        <v>22015126</v>
       </c>
       <c r="U60" s="13">
-        <v>2061418</v>
+        <v>6865046</v>
       </c>
       <c r="V60" s="13">
-        <v>22015126</v>
+        <v>7339511</v>
       </c>
       <c r="W60" s="13">
-        <v>6865046</v>
+        <v>5180389</v>
       </c>
       <c r="X60" s="13">
-        <v>7339511</v>
+        <v>7067237</v>
       </c>
       <c r="Y60" s="13">
-        <v>5180389</v>
+        <v>6956833</v>
       </c>
       <c r="Z60" s="13">
-        <v>7067237</v>
+        <v>5099658</v>
       </c>
       <c r="AA60" s="13">
-        <v>6956833</v>
+        <v>2093947</v>
       </c>
       <c r="AB60" s="13">
-        <v>5099658</v>
+        <v>8699660</v>
       </c>
       <c r="AC60" s="13">
-        <v>2093947</v>
+        <v>44156897</v>
       </c>
       <c r="AD60" s="13">
-        <v>8699660</v>
+        <v>8998062</v>
       </c>
       <c r="AE60" s="13">
-        <v>44156897</v>
+        <v>2350267</v>
       </c>
       <c r="AF60" s="13">
-        <v>8998062</v>
+        <v>47771429</v>
       </c>
       <c r="AG60" s="13">
-        <v>2350267</v>
+        <v>9148060</v>
       </c>
       <c r="AH60" s="13">
-        <v>47771429</v>
+        <v>5204434</v>
       </c>
       <c r="AI60" s="13">
-        <v>9148060</v>
+        <v>14527579</v>
       </c>
       <c r="AJ60" s="13">
-        <v>5204434</v>
+        <v>5199450</v>
       </c>
       <c r="AK60" s="13">
-        <v>14527579</v>
+        <v>5493698</v>
       </c>
       <c r="AL60" s="13">
-        <v>5199450</v>
+        <v>1917155</v>
       </c>
       <c r="AM60" s="13">
-        <v>5493698</v>
+        <v>3316604</v>
       </c>
       <c r="AN60" s="13">
-        <v>1917155</v>
+        <v>4780950</v>
       </c>
       <c r="AO60" s="13">
-        <v>3316604</v>
+        <v>4880963</v>
       </c>
       <c r="AP60" s="13">
-        <v>4780950</v>
+        <v>2792985</v>
       </c>
       <c r="AQ60" s="13">
-        <v>4880963</v>
+        <v>2979876</v>
       </c>
       <c r="AR60" s="13">
-        <v>2792985</v>
+        <v>39344444</v>
       </c>
       <c r="AS60" s="13">
-        <v>2979876</v>
+        <v>22838375</v>
       </c>
       <c r="AT60" s="13">
-        <v>39344444</v>
+        <v>24959329</v>
       </c>
       <c r="AU60" s="13">
-        <v>22838375</v>
+        <v>5987018</v>
       </c>
       <c r="AV60" s="13">
-        <v>24959329</v>
+        <v>8898072</v>
       </c>
       <c r="AW60" s="13">
-        <v>5987018</v>
+        <v>83096065</v>
       </c>
       <c r="AX60" s="13">
-        <v>8898072</v>
+        <v>3045575</v>
       </c>
       <c r="AY60" s="13">
-        <v>83096065</v>
+        <v>5461292</v>
       </c>
       <c r="AZ60" s="13">
-        <v>3045575</v>
+        <v>3402767</v>
       </c>
       <c r="BA60" s="13">
-        <v>5453484</v>
+        <v>53166375</v>
       </c>
       <c r="BB60" s="13">
-        <v>3402767</v>
+        <v>5654464</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>58</v>
       </c>
@@ -7175,154 +7175,154 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>247850</v>
+        <v>277969</v>
       </c>
       <c r="F61" s="11">
-        <v>245402</v>
+        <v>0</v>
       </c>
       <c r="G61" s="11">
-        <v>277969</v>
+        <v>347303</v>
       </c>
       <c r="H61" s="11">
-        <v>0</v>
+        <v>383890</v>
       </c>
       <c r="I61" s="11">
-        <v>347303</v>
+        <v>340430</v>
       </c>
       <c r="J61" s="11">
-        <v>383890</v>
+        <v>381531</v>
       </c>
       <c r="K61" s="11">
-        <v>340430</v>
+        <v>394902</v>
       </c>
       <c r="L61" s="11">
-        <v>381531</v>
+        <v>314097</v>
       </c>
       <c r="M61" s="11">
-        <v>394902</v>
+        <v>374795</v>
       </c>
       <c r="N61" s="11">
-        <v>314097</v>
+        <v>423713</v>
       </c>
       <c r="O61" s="11">
-        <v>374795</v>
+        <v>460519</v>
       </c>
       <c r="P61" s="11">
-        <v>423713</v>
+        <v>516548</v>
       </c>
       <c r="Q61" s="11">
-        <v>460519</v>
+        <v>630763</v>
       </c>
       <c r="R61" s="11">
-        <v>516548</v>
+        <v>680437</v>
       </c>
       <c r="S61" s="11">
-        <v>630763</v>
+        <v>309056</v>
       </c>
       <c r="T61" s="11">
-        <v>680437</v>
+        <v>439325</v>
       </c>
       <c r="U61" s="11">
-        <v>309056</v>
+        <v>579424</v>
       </c>
       <c r="V61" s="11">
-        <v>439325</v>
+        <v>526868</v>
       </c>
       <c r="W61" s="11">
-        <v>579424</v>
+        <v>739486</v>
       </c>
       <c r="X61" s="11">
-        <v>526868</v>
+        <v>969978</v>
       </c>
       <c r="Y61" s="11">
-        <v>739486</v>
+        <v>1311458</v>
       </c>
       <c r="Z61" s="11">
-        <v>969978</v>
+        <v>866119</v>
       </c>
       <c r="AA61" s="11">
-        <v>1311458</v>
+        <v>2472602</v>
       </c>
       <c r="AB61" s="11">
-        <v>866119</v>
+        <v>1140201</v>
       </c>
       <c r="AC61" s="11">
-        <v>2472602</v>
+        <v>1012332</v>
       </c>
       <c r="AD61" s="11">
-        <v>1140201</v>
+        <v>718318</v>
       </c>
       <c r="AE61" s="11">
-        <v>1012332</v>
+        <v>782359</v>
       </c>
       <c r="AF61" s="11">
-        <v>718318</v>
+        <v>13736</v>
       </c>
       <c r="AG61" s="11">
-        <v>782359</v>
+        <v>10878</v>
       </c>
       <c r="AH61" s="11">
-        <v>13736</v>
+        <v>17084</v>
       </c>
       <c r="AI61" s="11">
-        <v>10878</v>
+        <v>7291</v>
       </c>
       <c r="AJ61" s="11">
-        <v>17084</v>
+        <v>12041</v>
       </c>
       <c r="AK61" s="11">
-        <v>7291</v>
+        <v>8039</v>
       </c>
       <c r="AL61" s="11">
-        <v>12041</v>
+        <v>15177</v>
       </c>
       <c r="AM61" s="11">
-        <v>8039</v>
+        <v>7579</v>
       </c>
       <c r="AN61" s="11">
-        <v>15177</v>
+        <v>10850</v>
       </c>
       <c r="AO61" s="11">
-        <v>7579</v>
+        <v>34678</v>
       </c>
       <c r="AP61" s="11">
-        <v>10850</v>
+        <v>16252</v>
       </c>
       <c r="AQ61" s="11">
-        <v>34678</v>
+        <v>12605</v>
       </c>
       <c r="AR61" s="11">
-        <v>16252</v>
+        <v>9859</v>
       </c>
       <c r="AS61" s="11">
-        <v>12605</v>
+        <v>23645</v>
       </c>
       <c r="AT61" s="11">
-        <v>9859</v>
+        <v>8063</v>
       </c>
       <c r="AU61" s="11">
-        <v>23645</v>
+        <v>155518</v>
       </c>
       <c r="AV61" s="11">
-        <v>8063</v>
+        <v>17118</v>
       </c>
       <c r="AW61" s="11">
-        <v>155518</v>
+        <v>269387</v>
       </c>
       <c r="AX61" s="11">
-        <v>17118</v>
+        <v>22374</v>
       </c>
       <c r="AY61" s="11">
-        <v>269387</v>
+        <v>65745</v>
       </c>
       <c r="AZ61" s="11">
-        <v>22374</v>
+        <v>234295</v>
       </c>
       <c r="BA61" s="11">
-        <v>65745</v>
+        <v>316725</v>
       </c>
       <c r="BB61" s="11">
-        <v>234295</v>
+        <v>328766</v>
       </c>
     </row>
   </sheetData>
